--- a/CloudMonitor5G-2.0/src/main/resources/templates/4.问题路段.xlsx
+++ b/CloudMonitor5G-2.0/src/main/resources/templates/4.问题路段.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocal\CloudMonitor5G-2.0\CloudMonitor5G-2.0\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AC9406-A7CE-4BF1-8A57-4D59A914D456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-90" windowWidth="20730" windowHeight="11730" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="弱覆盖路段" sheetId="3" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="139">
   <si>
     <t>序号</t>
   </si>
@@ -300,11 +306,6 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>路段内：
-RSRP&lt;-105的采样点比例大于50%</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
     <t>路段内同时满足：
 1、UE-TxPower≥22dB；
 2、上行BLER&gt;10%</t>
@@ -561,7 +562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00000"/>
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
@@ -569,7 +570,7 @@
     <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1124,6 +1125,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1382,138 +1391,132 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="29" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="29" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="9.375" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="9.375" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="17" width="12.25" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="21" width="12.75" customWidth="1"/>
-    <col min="22" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="25.375" customWidth="1"/>
-    <col min="25" max="25" width="24.375" customWidth="1"/>
-    <col min="26" max="26" width="28" customWidth="1"/>
-    <col min="27" max="27" width="19.375" customWidth="1"/>
-    <col min="34" max="38" width="9" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="29" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="29" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="16" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="20" width="12.75" customWidth="1"/>
+    <col min="21" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="25.375" customWidth="1"/>
+    <col min="24" max="24" width="24.375" customWidth="1"/>
+    <col min="25" max="25" width="28" customWidth="1"/>
+    <col min="26" max="26" width="19.375" customWidth="1"/>
+    <col min="33" max="37" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="46.9" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="1:26" ht="46.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
         <v>35</v>
       </c>
+      <c r="B1" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="C1" s="35" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>32</v>
       </c>
+      <c r="G1" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="H1" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>33</v>
       </c>
+      <c r="J1" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="K1" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="M1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="P1" s="41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>34</v>
       </c>
+      <c r="W1" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="X1" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y1" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.6" customHeight="1">
-      <c r="A2" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>87</v>
-      </c>
+    <row r="2" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -1522,9 +1525,9 @@
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
@@ -1533,17 +1536,18 @@
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="25"/>
       <c r="X2" s="25"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-    </row>
-    <row r="3" spans="1:27" s="29" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="58" t="s">
-        <v>82</v>
+    </row>
+    <row r="3" spans="1:26" s="29" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>88</v>
@@ -1564,19 +1568,19 @@
         <v>93</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="L3" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>96</v>
       </c>
       <c r="N3" s="25" t="s">
         <v>99</v>
@@ -1600,32 +1604,29 @@
         <v>105</v>
       </c>
       <c r="U3" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="V3" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="V3" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="W3" s="56" t="s">
-        <v>107</v>
-      </c>
+      <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="23"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.6" customHeight="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="30"/>
+      <c r="Z3" s="23"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -1636,25 +1637,24 @@
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="U4" s="21"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.6" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="30"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -1665,25 +1665,24 @@
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="23"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.6" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="30"/>
+      <c r="Z5" s="23"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -1694,24 +1693,24 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
+      <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="25"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -1722,24 +1721,24 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="23"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1">
-      <c r="B8" s="7"/>
+      <c r="Z7" s="23"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="26"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1750,24 +1749,24 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1">
-      <c r="B9" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="26"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1778,24 +1777,24 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1">
-      <c r="B10" s="7"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="26"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -1806,24 +1805,24 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1">
-      <c r="B11" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="26"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1834,24 +1833,24 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
+      <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" ht="16.5" customHeight="1">
-      <c r="B12" s="7"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="26"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1862,24 +1861,24 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" ht="16.5" customHeight="1">
-      <c r="B13" s="7"/>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="26"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1890,24 +1889,24 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" ht="16.5" customHeight="1">
-      <c r="B14" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="26"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -1918,24 +1917,24 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" ht="16.5" customHeight="1">
-      <c r="B15" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="26"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -1946,24 +1945,24 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" ht="16.5" customHeight="1">
-      <c r="B16" s="7"/>
+    </row>
+    <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="26"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -1974,24 +1973,24 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
+      <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-    </row>
-    <row r="17" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B17" s="7"/>
+    </row>
+    <row r="17" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="26"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -2002,24 +2001,24 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
+      <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-    </row>
-    <row r="18" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B18" s="7"/>
+    </row>
+    <row r="18" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="26"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -2030,24 +2029,24 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
+      <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-    </row>
-    <row r="19" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B19" s="7"/>
+    </row>
+    <row r="19" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="26"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -2064,18 +2063,18 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-    </row>
-    <row r="20" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B20" s="7"/>
+    </row>
+    <row r="20" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="26"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -2092,18 +2091,18 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-    </row>
-    <row r="21" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B21" s="7"/>
+    </row>
+    <row r="21" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="26"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -2119,19 +2118,19 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="8"/>
-    </row>
-    <row r="22" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B22" s="7"/>
+      <c r="Z21" s="8"/>
+    </row>
+    <row r="22" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="26"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -2147,19 +2146,19 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="8"/>
-    </row>
-    <row r="23" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B23" s="7"/>
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="26"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -2176,23 +2175,23 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
+      <c r="AG23" s="16"/>
       <c r="AH23" s="16"/>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="16"/>
       <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-    </row>
-    <row r="24" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B24" s="7"/>
+    </row>
+    <row r="24" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -2209,64 +2208,64 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AH24" s="16" t="s">
+      <c r="AG24" s="16" t="s">
         <v>23</v>
       </c>
+      <c r="AH24" s="16"/>
       <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16" t="s">
+      <c r="AJ24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AL24" s="16"/>
-    </row>
-    <row r="25" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B25" s="7"/>
+      <c r="AK24" s="16"/>
+    </row>
+    <row r="25" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="26"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
+      <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AH25" s="16" t="s">
+      <c r="AG25" s="16" t="s">
         <v>25</v>
       </c>
+      <c r="AH25" s="16"/>
       <c r="AI25" s="16"/>
-      <c r="AJ25" s="16"/>
-      <c r="AK25" s="16" t="s">
+      <c r="AJ25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AL25" s="16"/>
-    </row>
-    <row r="26" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B26" s="7"/>
+      <c r="AK25" s="16"/>
+    </row>
+    <row r="26" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="26"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -2283,27 +2282,27 @@
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AH26" s="16" t="s">
+      <c r="AG26" s="16" t="s">
         <v>27</v>
       </c>
+      <c r="AH26" s="16"/>
       <c r="AI26" s="16"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="16" t="s">
+      <c r="AJ26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AL26" s="16"/>
-    </row>
-    <row r="27" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B27" s="7"/>
+      <c r="AK26" s="16"/>
+    </row>
+    <row r="27" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="26"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -2320,25 +2319,25 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AH27" s="16" t="s">
+      <c r="AG27" s="16" t="s">
         <v>29</v>
       </c>
+      <c r="AH27" s="16"/>
       <c r="AI27" s="16"/>
       <c r="AJ27" s="16"/>
       <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-    </row>
-    <row r="28" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B28" s="7"/>
+    </row>
+    <row r="28" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="26"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -2355,25 +2354,25 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AH28" s="16" t="s">
+      <c r="AG28" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="AH28" s="16"/>
       <c r="AI28" s="16"/>
       <c r="AJ28" s="16"/>
       <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-    </row>
-    <row r="29" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B29" s="7"/>
+    </row>
+    <row r="29" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="26"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -2390,18 +2389,18 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-    </row>
-    <row r="30" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B30" s="7"/>
+    </row>
+    <row r="30" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="26"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -2418,18 +2417,18 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-    </row>
-    <row r="31" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B31" s="7"/>
+    </row>
+    <row r="31" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="26"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -2446,18 +2445,18 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-    </row>
-    <row r="32" spans="2:38" ht="16.5" customHeight="1">
-      <c r="B32" s="7"/>
+    </row>
+    <row r="32" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="26"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -2474,18 +2473,18 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-    </row>
-    <row r="33" spans="2:27" ht="16.5" customHeight="1">
-      <c r="B33" s="7"/>
+    </row>
+    <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="26"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -2502,18 +2501,18 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-    </row>
-    <row r="34" spans="2:27" ht="16.5" customHeight="1">
-      <c r="B34" s="7"/>
+    </row>
+    <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="26"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -2530,18 +2529,18 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-    </row>
-    <row r="35" spans="2:27" ht="16.5" customHeight="1">
-      <c r="B35" s="7"/>
+    </row>
+    <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="26"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -2558,18 +2557,18 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-    </row>
-    <row r="36" spans="2:27" ht="16.5" customHeight="1">
-      <c r="B36" s="7"/>
+    </row>
+    <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="26"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -2586,18 +2585,18 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-    </row>
-    <row r="37" spans="2:27" ht="16.5" customHeight="1">
-      <c r="B37" s="1"/>
+    </row>
+    <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -2610,22 +2609,22 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="2"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-    </row>
-    <row r="38" spans="2:27" ht="16.5" customHeight="1">
-      <c r="B38" s="1"/>
+    </row>
+    <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2638,22 +2637,22 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="2"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-    </row>
-    <row r="39" spans="2:27" ht="16.5" customHeight="1">
-      <c r="B39" s="1"/>
+    </row>
+    <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -2666,22 +2665,22 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="2"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" ht="16.5" customHeight="1">
-      <c r="B40" s="1"/>
+    </row>
+    <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -2694,22 +2693,22 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="2"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" ht="16.5" customHeight="1">
-      <c r="B41" s="1"/>
+    </row>
+    <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -2722,22 +2721,22 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="2"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-    </row>
-    <row r="42" spans="2:27" ht="16.5" customHeight="1">
-      <c r="B42" s="1"/>
+    </row>
+    <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -2750,22 +2749,22 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="2"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-    </row>
-    <row r="43" spans="2:27" ht="16.5" customHeight="1">
-      <c r="B43" s="1"/>
+    </row>
+    <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -2778,22 +2777,22 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="2"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-    </row>
-    <row r="44" spans="2:27" ht="15" customHeight="1">
-      <c r="B44" s="1"/>
+    </row>
+    <row r="44" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -2806,22 +2805,22 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-    </row>
-    <row r="45" spans="2:27" ht="15" customHeight="1">
-      <c r="B45" s="1"/>
+    </row>
+    <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -2834,22 +2833,22 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="2"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-    </row>
-    <row r="46" spans="2:27" ht="15" customHeight="1">
-      <c r="B46" s="1"/>
+    </row>
+    <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -2862,22 +2861,22 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="2"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-    </row>
-    <row r="47" spans="2:27" ht="15" customHeight="1">
-      <c r="B47" s="1"/>
+    </row>
+    <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -2890,22 +2889,22 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="2"/>
-    </row>
-    <row r="48" spans="2:27" ht="15" customHeight="1">
-      <c r="B48" s="1"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="2"/>
+    </row>
+    <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -2918,22 +2917,22 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="2"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-    </row>
-    <row r="49" spans="2:27" ht="15" customHeight="1">
-      <c r="B49" s="1"/>
+    </row>
+    <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -2946,22 +2945,22 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="2"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-    </row>
-    <row r="50" spans="2:27" ht="15" customHeight="1">
-      <c r="B50" s="1"/>
+    </row>
+    <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -2974,22 +2973,22 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="2"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-    </row>
-    <row r="51" spans="2:27" ht="15" customHeight="1">
-      <c r="B51" s="1"/>
+    </row>
+    <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -3004,20 +3003,20 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
+      <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-    </row>
-    <row r="52" spans="2:27" ht="15" customHeight="1">
-      <c r="B52" s="1"/>
+    </row>
+    <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -3032,20 +3031,20 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
+      <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-    </row>
-    <row r="53" spans="2:27" ht="15" customHeight="1">
-      <c r="B53" s="1"/>
+    </row>
+    <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3058,22 +3057,22 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="2"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-    </row>
-    <row r="54" spans="2:27" ht="15" customHeight="1">
-      <c r="B54" s="1"/>
+    </row>
+    <row r="54" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3088,20 +3087,20 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
+      <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-    </row>
-    <row r="55" spans="2:27" ht="15" customHeight="1">
-      <c r="B55" s="1"/>
+    </row>
+    <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -3112,24 +3111,24 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
+      <c r="U55" s="5"/>
       <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
+      <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
+      <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="2:27" ht="15" customHeight="1">
-      <c r="B56" s="1"/>
+    </row>
+    <row r="56" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -3144,20 +3143,20 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
+      <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="2:27" ht="15" customHeight="1">
-      <c r="B57" s="1"/>
+    </row>
+    <row r="57" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -3172,20 +3171,20 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
+      <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-    </row>
-    <row r="58" spans="2:27" ht="15" customHeight="1">
-      <c r="B58" s="1"/>
+    </row>
+    <row r="58" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -3199,21 +3198,21 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
+      <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-    </row>
-    <row r="59" spans="2:27" ht="15" customHeight="1">
-      <c r="B59" s="1"/>
+    </row>
+    <row r="59" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -3228,20 +3227,20 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
+      <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-    </row>
-    <row r="60" spans="2:27" ht="15" customHeight="1">
-      <c r="B60" s="1"/>
+    </row>
+    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -3256,20 +3255,20 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
+      <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-    </row>
-    <row r="61" spans="2:27" ht="15" customHeight="1">
-      <c r="B61" s="1"/>
+    </row>
+    <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -3284,20 +3283,20 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
+      <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-    </row>
-    <row r="62" spans="2:27" ht="15" customHeight="1">
-      <c r="B62" s="1"/>
+    </row>
+    <row r="62" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -3312,20 +3311,20 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
+      <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-    </row>
-    <row r="63" spans="2:27" ht="15" customHeight="1">
-      <c r="B63" s="1"/>
+    </row>
+    <row r="63" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -3340,20 +3339,20 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
+      <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-    </row>
-    <row r="64" spans="2:27" ht="15" customHeight="1">
-      <c r="B64" s="1"/>
+    </row>
+    <row r="64" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -3368,20 +3367,20 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
+      <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-    </row>
-    <row r="65" spans="2:27" ht="15" customHeight="1">
-      <c r="B65" s="1"/>
+    </row>
+    <row r="65" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -3396,20 +3395,20 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
+      <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-    </row>
-    <row r="66" spans="2:27" ht="15" customHeight="1">
-      <c r="B66" s="1"/>
+    </row>
+    <row r="66" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -3424,25 +3423,25 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
+      <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-    </row>
-    <row r="67" spans="2:27" ht="15" customHeight="1">
-      <c r="B67" s="1"/>
+    </row>
+    <row r="67" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="2"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
+      <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
@@ -3452,25 +3451,25 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
+      <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" ht="15" customHeight="1">
-      <c r="B68" s="1"/>
+    </row>
+    <row r="68" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="2"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
+      <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
@@ -3480,21 +3479,21 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
+      <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-    </row>
-    <row r="69" spans="2:27" ht="15" customHeight="1">
-      <c r="B69" s="1"/>
+    </row>
+    <row r="69" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="2"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -3504,29 +3503,29 @@
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
+      <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
+      <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-    </row>
-    <row r="70" spans="2:27" ht="15" customHeight="1">
-      <c r="B70" s="1"/>
+    </row>
+    <row r="70" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="2"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
+      <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
@@ -3536,25 +3535,25 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
+      <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-    </row>
-    <row r="71" spans="2:27" ht="15" customHeight="1">
-      <c r="B71" s="1"/>
+    </row>
+    <row r="71" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="2"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
+      <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
@@ -3564,25 +3563,25 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
+      <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-    </row>
-    <row r="72" spans="2:27" ht="15" customHeight="1">
-      <c r="B72" s="1"/>
+    </row>
+    <row r="72" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="2"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
+      <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
@@ -3592,25 +3591,25 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
+      <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-    </row>
-    <row r="73" spans="2:27" ht="15" customHeight="1">
-      <c r="B73" s="1"/>
+    </row>
+    <row r="73" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="2"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
+      <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
@@ -3620,20 +3619,20 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="2"/>
-    </row>
-    <row r="74" spans="2:27" ht="15" customHeight="1">
-      <c r="B74" s="1"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="2"/>
+    </row>
+    <row r="74" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -3648,20 +3647,20 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
+      <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-    </row>
-    <row r="75" spans="2:27" ht="15" customHeight="1">
-      <c r="B75" s="1"/>
+    </row>
+    <row r="75" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -3676,20 +3675,20 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
+      <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-    </row>
-    <row r="76" spans="2:27" ht="15" customHeight="1">
-      <c r="B76" s="1"/>
+    </row>
+    <row r="76" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -3704,20 +3703,20 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
+      <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-    </row>
-    <row r="77" spans="2:27" ht="15" customHeight="1">
-      <c r="B77" s="1"/>
+    </row>
+    <row r="77" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -3732,20 +3731,20 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
+      <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-    </row>
-    <row r="78" spans="2:27" ht="15" customHeight="1">
-      <c r="B78" s="1"/>
+    </row>
+    <row r="78" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1"/>
+      <c r="B78" s="27"/>
       <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -3760,20 +3759,20 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
+      <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-    </row>
-    <row r="79" spans="2:27" ht="15" customHeight="1">
-      <c r="B79" s="1"/>
+    </row>
+    <row r="79" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -3788,20 +3787,20 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
+      <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-    </row>
-    <row r="80" spans="2:27" ht="15" customHeight="1">
-      <c r="B80" s="1"/>
+    </row>
+    <row r="80" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -3817,19 +3816,19 @@
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="3"/>
-    </row>
-    <row r="81" spans="2:27" ht="15" customHeight="1">
-      <c r="B81" s="1"/>
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -3845,19 +3844,19 @@
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
-      <c r="AA81" s="3"/>
-    </row>
-    <row r="82" spans="2:27" ht="15" customHeight="1">
-      <c r="B82" s="1"/>
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -3873,19 +3872,19 @@
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="2:27" ht="15" customHeight="1">
-      <c r="B83" s="1"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -3901,24 +3900,24 @@
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
-      <c r="AA83" s="3"/>
-    </row>
-    <row r="84" spans="2:27" ht="15" customHeight="1">
-      <c r="B84" s="1"/>
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
+      <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
@@ -3929,19 +3928,19 @@
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-      <c r="AA84" s="3"/>
-    </row>
-    <row r="85" spans="2:27" ht="15" customHeight="1">
-      <c r="B85" s="1"/>
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -3957,19 +3956,19 @@
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
-      <c r="AA85" s="3"/>
-    </row>
-    <row r="86" spans="2:27" ht="15" customHeight="1">
-      <c r="B86" s="1"/>
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -3985,19 +3984,19 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
-      <c r="AA86" s="3"/>
-    </row>
-    <row r="87" spans="2:27" ht="15" customHeight="1">
-      <c r="B87" s="1"/>
+      <c r="Z86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -4012,20 +4011,20 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
+      <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
-      <c r="AA87" s="3"/>
-    </row>
-    <row r="88" spans="2:27" ht="15" customHeight="1">
-      <c r="B88" s="1"/>
+    </row>
+    <row r="88" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -4040,20 +4039,20 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
+      <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-    </row>
-    <row r="89" spans="2:27" ht="15" customHeight="1">
-      <c r="B89" s="1"/>
+    </row>
+    <row r="89" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -4068,20 +4067,20 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
+      <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
-      <c r="AA89" s="3"/>
-    </row>
-    <row r="90" spans="2:27" ht="15" customHeight="1">
-      <c r="B90" s="1"/>
+    </row>
+    <row r="90" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -4096,20 +4095,20 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
+      <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-      <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="2:27" ht="15" customHeight="1">
-      <c r="B91" s="1"/>
+    </row>
+    <row r="91" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -4124,20 +4123,20 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
+      <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
-      <c r="AA91" s="3"/>
-    </row>
-    <row r="92" spans="2:27" ht="15" customHeight="1">
-      <c r="B92" s="1"/>
+    </row>
+    <row r="92" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -4152,20 +4151,20 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
+      <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
-      <c r="AA92" s="3"/>
-    </row>
-    <row r="93" spans="2:27" ht="15" customHeight="1">
-      <c r="B93" s="1"/>
+    </row>
+    <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1"/>
+      <c r="B93" s="27"/>
       <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -4180,25 +4179,25 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
+      <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
-      <c r="AA93" s="3"/>
-    </row>
-    <row r="94" spans="2:27" ht="15" customHeight="1">
-      <c r="B94" s="1"/>
+    </row>
+    <row r="94" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="2"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
+      <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
@@ -4208,20 +4207,20 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
+      <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
-      <c r="AA94" s="3"/>
-    </row>
-    <row r="95" spans="2:27" ht="15" customHeight="1">
-      <c r="B95" s="1"/>
+    </row>
+    <row r="95" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -4236,25 +4235,25 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
+      <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-      <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="2:27" ht="15" customHeight="1">
-      <c r="B96" s="1"/>
+    </row>
+    <row r="96" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="2"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
+      <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
@@ -4264,25 +4263,25 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
+      <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
-      <c r="AA96" s="3"/>
-    </row>
-    <row r="97" spans="2:27" ht="15" customHeight="1">
-      <c r="B97" s="1"/>
+    </row>
+    <row r="97" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="2"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
+      <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
@@ -4292,25 +4291,25 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
+      <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
-      <c r="AA97" s="3"/>
-    </row>
-    <row r="98" spans="2:27" ht="15" customHeight="1">
-      <c r="B98" s="1"/>
+    </row>
+    <row r="98" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="2"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
+      <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
@@ -4320,25 +4319,25 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
+      <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-    </row>
-    <row r="99" spans="2:27" ht="15" customHeight="1">
-      <c r="B99" s="1"/>
+    </row>
+    <row r="99" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="2"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
+      <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
@@ -4348,25 +4347,25 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
+      <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-    </row>
-    <row r="100" spans="2:27" ht="15" customHeight="1">
-      <c r="B100" s="1"/>
+    </row>
+    <row r="100" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1"/>
+      <c r="B100" s="27"/>
       <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="2"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
+      <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
@@ -4376,25 +4375,25 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
+      <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-    </row>
-    <row r="101" spans="2:27" ht="15" customHeight="1">
-      <c r="B101" s="1"/>
+    </row>
+    <row r="101" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1"/>
+      <c r="B101" s="27"/>
       <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="20"/>
-      <c r="K101" s="2"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
+      <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
@@ -4404,25 +4403,25 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
+      <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-    </row>
-    <row r="102" spans="2:27" ht="15" customHeight="1">
-      <c r="B102" s="1"/>
+    </row>
+    <row r="102" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1"/>
+      <c r="B102" s="27"/>
       <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="2"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
+      <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
@@ -4432,25 +4431,25 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
+      <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-    </row>
-    <row r="103" spans="2:27" ht="15" customHeight="1">
-      <c r="B103" s="1"/>
+    </row>
+    <row r="103" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1"/>
+      <c r="B103" s="27"/>
       <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="2"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
+      <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
@@ -4460,25 +4459,25 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
-      <c r="Y103" s="2"/>
+      <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
-      <c r="AA103" s="3"/>
-    </row>
-    <row r="104" spans="2:27" ht="15" customHeight="1">
-      <c r="B104" s="1"/>
+    </row>
+    <row r="104" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1"/>
+      <c r="B104" s="27"/>
       <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="2"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
+      <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
@@ -4488,25 +4487,25 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
+      <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
-      <c r="AA104" s="3"/>
-    </row>
-    <row r="105" spans="2:27" ht="15" customHeight="1">
-      <c r="B105" s="1"/>
+    </row>
+    <row r="105" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="1"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="2"/>
       <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="2"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
+      <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
@@ -4516,25 +4515,25 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
+      <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
-      <c r="AA105" s="3"/>
-    </row>
-    <row r="106" spans="2:27" ht="15" customHeight="1">
-      <c r="B106" s="1"/>
+    </row>
+    <row r="106" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="2"/>
       <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="2"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
+      <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
@@ -4544,25 +4543,25 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
+      <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
-      <c r="AA106" s="3"/>
-    </row>
-    <row r="107" spans="2:27" ht="15" customHeight="1">
-      <c r="B107" s="1"/>
+    </row>
+    <row r="107" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="1"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="2"/>
       <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="20"/>
-      <c r="K107" s="2"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
+      <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
@@ -4572,25 +4571,25 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
+      <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
-      <c r="AA107" s="3"/>
-    </row>
-    <row r="108" spans="2:27" ht="15" customHeight="1">
-      <c r="B108" s="1"/>
+    </row>
+    <row r="108" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="1"/>
+      <c r="B108" s="27"/>
       <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="2"/>
       <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="2"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
+      <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
@@ -4600,25 +4599,25 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
+      <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
-      <c r="AA108" s="3"/>
-    </row>
-    <row r="109" spans="2:27" ht="15" customHeight="1">
-      <c r="B109" s="1"/>
+    </row>
+    <row r="109" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1"/>
+      <c r="B109" s="27"/>
       <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="2"/>
       <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="20"/>
-      <c r="K109" s="2"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
+      <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
@@ -4628,25 +4627,25 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
-      <c r="Y109" s="2"/>
+      <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
-      <c r="AA109" s="3"/>
-    </row>
-    <row r="110" spans="2:27" ht="15" customHeight="1">
-      <c r="B110" s="1"/>
+    </row>
+    <row r="110" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1"/>
+      <c r="B110" s="27"/>
       <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="2"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="20"/>
-      <c r="K110" s="2"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
+      <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
@@ -4656,25 +4655,25 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
+      <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
-      <c r="AA110" s="3"/>
-    </row>
-    <row r="111" spans="2:27" ht="15" customHeight="1">
-      <c r="B111" s="1"/>
+    </row>
+    <row r="111" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="1"/>
+      <c r="B111" s="27"/>
       <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="2"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
+      <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
@@ -4684,25 +4683,25 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
+      <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
-      <c r="AA111" s="3"/>
-    </row>
-    <row r="112" spans="2:27" ht="15" customHeight="1">
-      <c r="B112" s="1"/>
+    </row>
+    <row r="112" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="1"/>
+      <c r="B112" s="27"/>
       <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="2"/>
       <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="2"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
+      <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
@@ -4712,25 +4711,25 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
       <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
+      <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
-      <c r="AA112" s="3"/>
-    </row>
-    <row r="113" spans="2:27" ht="15" customHeight="1">
-      <c r="B113" s="1"/>
+    </row>
+    <row r="113" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="1"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="2"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
+      <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
@@ -4740,25 +4739,25 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
       <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
+      <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
-      <c r="AA113" s="3"/>
-    </row>
-    <row r="114" spans="2:27" ht="15" customHeight="1">
-      <c r="B114" s="1"/>
+    </row>
+    <row r="114" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="1"/>
+      <c r="B114" s="27"/>
       <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="2"/>
       <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="2"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
+      <c r="O114" s="2"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
@@ -4768,25 +4767,25 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
+      <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
-      <c r="AA114" s="3"/>
-    </row>
-    <row r="115" spans="2:27" ht="15" customHeight="1">
-      <c r="B115" s="1"/>
+    </row>
+    <row r="115" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="1"/>
+      <c r="B115" s="27"/>
       <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="2"/>
       <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="2"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
+      <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
@@ -4796,21 +4795,21 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
+      <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
-      <c r="AA115" s="3"/>
-    </row>
-    <row r="116" spans="2:27" ht="15" customHeight="1">
-      <c r="B116" s="1"/>
+    </row>
+    <row r="116" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="1"/>
+      <c r="B116" s="27"/>
       <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="2"/>
       <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="2"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
@@ -4820,29 +4819,29 @@
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
-      <c r="U116" s="6"/>
+      <c r="U116" s="2"/>
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
+      <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
-      <c r="AA116" s="3"/>
-    </row>
-    <row r="117" spans="2:27" ht="15" customHeight="1">
-      <c r="B117" s="1"/>
+    </row>
+    <row r="117" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="1"/>
+      <c r="B117" s="27"/>
       <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="2"/>
       <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="20"/>
-      <c r="K117" s="2"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
+      <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
@@ -4853,24 +4852,24 @@
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
-      <c r="AA117" s="3"/>
-    </row>
-    <row r="118" spans="2:27" ht="15" customHeight="1">
-      <c r="B118" s="1"/>
+      <c r="Z117" s="3"/>
+    </row>
+    <row r="118" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="1"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="2"/>
       <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="2"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
+      <c r="O118" s="2"/>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
@@ -4881,24 +4880,24 @@
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
-      <c r="Z118" s="2"/>
-      <c r="AA118" s="3"/>
-    </row>
-    <row r="119" spans="2:27" ht="15" customHeight="1">
-      <c r="B119" s="1"/>
+      <c r="Z118" s="3"/>
+    </row>
+    <row r="119" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="1"/>
+      <c r="B119" s="27"/>
       <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="20"/>
-      <c r="K119" s="2"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
+      <c r="O119" s="2"/>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
@@ -4909,24 +4908,24 @@
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
-      <c r="Z119" s="2"/>
-      <c r="AA119" s="3"/>
-    </row>
-    <row r="120" spans="2:27" ht="15" customHeight="1">
-      <c r="B120" s="1"/>
+      <c r="Z119" s="3"/>
+    </row>
+    <row r="120" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="1"/>
+      <c r="B120" s="27"/>
       <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="20"/>
-      <c r="K120" s="2"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
+      <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
@@ -4937,19 +4936,19 @@
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
-      <c r="Z120" s="2"/>
-      <c r="AA120" s="3"/>
-    </row>
-    <row r="121" spans="2:27" ht="15" customHeight="1">
-      <c r="B121" s="1"/>
+      <c r="Z120" s="3"/>
+    </row>
+    <row r="121" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="1"/>
+      <c r="B121" s="27"/>
       <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="2"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
@@ -4965,24 +4964,24 @@
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
-      <c r="Z121" s="2"/>
-      <c r="AA121" s="3"/>
-    </row>
-    <row r="122" spans="2:27" ht="15" customHeight="1">
-      <c r="B122" s="1"/>
+      <c r="Z121" s="3"/>
+    </row>
+    <row r="122" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="1"/>
+      <c r="B122" s="27"/>
       <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="20"/>
-      <c r="K122" s="2"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
+      <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
@@ -4993,24 +4992,24 @@
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
-      <c r="Z122" s="2"/>
-      <c r="AA122" s="3"/>
-    </row>
-    <row r="123" spans="2:27" ht="15" customHeight="1">
-      <c r="B123" s="1"/>
+      <c r="Z122" s="3"/>
+    </row>
+    <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="1"/>
+      <c r="B123" s="27"/>
       <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="2"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="20"/>
-      <c r="K123" s="2"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
-      <c r="O123" s="6"/>
+      <c r="O123" s="2"/>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
@@ -5022,23 +5021,23 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
-      <c r="AA123" s="2"/>
-    </row>
-    <row r="124" spans="2:27" ht="15" customHeight="1">
-      <c r="B124" s="1"/>
+    </row>
+    <row r="124" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="1"/>
+      <c r="B124" s="27"/>
       <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="2"/>
       <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="2"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
+      <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
@@ -5050,18 +5049,18 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
-      <c r="AA124" s="2"/>
-    </row>
-    <row r="125" spans="2:27" ht="15" customHeight="1">
-      <c r="B125" s="1"/>
+    </row>
+    <row r="125" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="1"/>
+      <c r="B125" s="27"/>
       <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="2"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
@@ -5078,18 +5077,18 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
-      <c r="AA125" s="2"/>
-    </row>
-    <row r="126" spans="2:27" ht="15" customHeight="1">
-      <c r="B126" s="1"/>
+    </row>
+    <row r="126" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="1"/>
+      <c r="B126" s="27"/>
       <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="2"/>
       <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -5106,18 +5105,14 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
-      <c r="AA126" s="2"/>
-    </row>
-    <row r="127" spans="2:27" ht="15" customHeight="1">
-      <c r="B127" s="4"/>
+    </row>
+    <row r="127" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="4"/>
+      <c r="B127" s="28"/>
       <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-    </row>
-    <row r="128" spans="2:27" ht="15" customHeight="1"/>
+    </row>
+    <row r="128" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5125,14 +5120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.125" style="49" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -5160,7 +5155,7 @@
     <col min="36" max="40" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="44" customFormat="1" ht="60" customHeight="1">
+    <row r="1" spans="1:29" s="44" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>75</v>
       </c>
@@ -5249,10 +5244,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="44" customFormat="1" ht="60" customHeight="1">
+    <row r="2" spans="1:29" s="44" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="43"/>
@@ -5282,91 +5277,91 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="26"/>
     </row>
-    <row r="3" spans="1:29" ht="15.6" customHeight="1">
+    <row r="3" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="25" t="s">
+      <c r="M3" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="P3" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="S3" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="S3" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="U3" s="25" t="s">
+      <c r="V3" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="W3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="X3" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y3" s="56" t="s">
         <v>106</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y3" s="56" t="s">
-        <v>107</v>
       </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:29" ht="15.6" customHeight="1">
+    <row r="4" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="60"/>
       <c r="B4" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="43"/>
@@ -5396,7 +5391,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:29" ht="15.6" customHeight="1">
+    <row r="5" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60"/>
       <c r="B5" s="7"/>
       <c r="C5" s="26"/>
@@ -5427,7 +5422,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:29" ht="15.6" customHeight="1">
+    <row r="6" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60"/>
       <c r="B6" s="7"/>
       <c r="C6" s="26"/>
@@ -5458,7 +5453,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60"/>
       <c r="B7" s="7"/>
       <c r="C7" s="26"/>
@@ -5489,7 +5484,7 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
     </row>
-    <row r="8" spans="1:29" ht="15" customHeight="1">
+    <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="60"/>
       <c r="B8" s="7"/>
       <c r="C8" s="26"/>
@@ -5520,7 +5515,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
     </row>
-    <row r="9" spans="1:29" ht="15" customHeight="1">
+    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60"/>
       <c r="B9" s="7"/>
       <c r="C9" s="26"/>
@@ -5551,7 +5546,7 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
     </row>
-    <row r="10" spans="1:29" ht="15" customHeight="1">
+    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60"/>
       <c r="B10" s="7"/>
       <c r="C10" s="26"/>
@@ -5582,7 +5577,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
     </row>
-    <row r="11" spans="1:29" ht="15" customHeight="1">
+    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60"/>
       <c r="B11" s="7"/>
       <c r="C11" s="26"/>
@@ -5623,14 +5618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.875" style="49" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
@@ -5660,7 +5655,7 @@
     <col min="37" max="41" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="44" customFormat="1" ht="62.45" customHeight="1">
+    <row r="1" spans="1:31" s="44" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>67</v>
       </c>
@@ -5752,10 +5747,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="44" customFormat="1" ht="18.75" customHeight="1">
+    <row r="2" spans="1:31" s="44" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="51"/>
@@ -5786,82 +5781,82 @@
       <c r="AC2" s="34"/>
       <c r="AD2" s="34"/>
     </row>
-    <row r="3" spans="1:31" s="44" customFormat="1" ht="62.45" customHeight="1">
+    <row r="3" spans="1:31" s="44" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="25" t="s">
+      <c r="M3" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="P3" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="S3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="S3" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="U3" s="25" t="s">
+      <c r="W3" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y3" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="V3" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="X3" s="25" t="s">
+      <c r="Z3" s="56" t="s">
         <v>106</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z3" s="56" t="s">
-        <v>107</v>
       </c>
       <c r="AA3" s="25"/>
       <c r="AB3" s="34"/>
@@ -5869,12 +5864,12 @@
       <c r="AD3" s="34"/>
       <c r="AE3" s="34"/>
     </row>
-    <row r="4" spans="1:31" ht="15.6" customHeight="1">
+    <row r="4" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -5905,7 +5900,7 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
     </row>
-    <row r="5" spans="1:31" ht="15.6" customHeight="1">
+    <row r="5" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60"/>
       <c r="B5" s="7"/>
       <c r="C5" s="26"/>
@@ -5937,7 +5932,7 @@
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
     </row>
-    <row r="6" spans="1:31" ht="15.6" customHeight="1">
+    <row r="6" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60"/>
       <c r="B6" s="7"/>
       <c r="C6" s="26"/>
@@ -5969,7 +5964,7 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
     </row>
-    <row r="7" spans="1:31" ht="15.6" customHeight="1">
+    <row r="7" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60"/>
       <c r="B7" s="7"/>
       <c r="C7" s="26"/>
@@ -6001,7 +5996,7 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
     </row>
-    <row r="8" spans="1:31" ht="15.6" customHeight="1">
+    <row r="8" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="60"/>
       <c r="B8" s="7"/>
       <c r="C8" s="26"/>
@@ -6033,7 +6028,7 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
     </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1">
+    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60"/>
       <c r="B9" s="7"/>
       <c r="C9" s="26"/>
@@ -6065,7 +6060,7 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
     </row>
-    <row r="10" spans="1:31" ht="15" customHeight="1">
+    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60"/>
       <c r="B10" s="7"/>
       <c r="C10" s="26"/>
@@ -6097,7 +6092,7 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
     </row>
-    <row r="11" spans="1:31" ht="15" customHeight="1">
+    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60"/>
       <c r="B11" s="7"/>
       <c r="C11" s="26"/>
@@ -6129,7 +6124,7 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
     </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1">
+    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -6170,14 +6165,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AQ301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.25" style="49" customWidth="1"/>
     <col min="2" max="2" width="30.875" customWidth="1"/>
@@ -6214,7 +6209,7 @@
     <col min="42" max="43" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="44" customFormat="1" ht="78" customHeight="1">
+    <row r="1" spans="1:43" s="44" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>67</v>
       </c>
@@ -6345,10 +6340,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="44" customFormat="1" ht="48" customHeight="1">
+    <row r="2" spans="1:43" s="44" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="51"/>
@@ -6392,129 +6387,129 @@
       <c r="AP2" s="47"/>
       <c r="AQ2" s="47"/>
     </row>
-    <row r="3" spans="1:43" s="44" customFormat="1" ht="78" customHeight="1">
+    <row r="3" spans="1:43" s="44" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="25" t="s">
+      <c r="M3" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="P3" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="25" t="s">
-        <v>103</v>
-      </c>
       <c r="S3" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="U3" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="V3" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="W3" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y3" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="X3" s="25" t="s">
+      <c r="Z3" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z3" s="25" t="s">
+      <c r="AA3" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AB3" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AC3" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AD3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AE3" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AF3" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="AF3" s="25" t="s">
-        <v>126</v>
       </c>
       <c r="AG3" s="47"/>
       <c r="AH3" s="47"/>
       <c r="AI3" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ3" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AJ3" s="25" t="s">
+      <c r="AK3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AK3" s="25" t="s">
+      <c r="AL3" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM3" s="56" t="s">
         <v>106</v>
-      </c>
-      <c r="AL3" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM3" s="56" t="s">
-        <v>107</v>
       </c>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
       <c r="AP3" s="47"/>
       <c r="AQ3" s="47"/>
     </row>
-    <row r="4" spans="1:43" ht="18" customHeight="1">
+    <row r="4" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="43"/>
@@ -6558,7 +6553,7 @@
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
     </row>
-    <row r="5" spans="1:43" ht="15.6" customHeight="1">
+    <row r="5" spans="1:43" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60"/>
       <c r="B5" s="7"/>
       <c r="C5" s="26"/>
@@ -6603,7 +6598,7 @@
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
     </row>
-    <row r="6" spans="1:43" ht="15.6" customHeight="1">
+    <row r="6" spans="1:43" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60"/>
       <c r="B6" s="7"/>
       <c r="C6" s="26"/>
@@ -6648,7 +6643,7 @@
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
     </row>
-    <row r="7" spans="1:43" ht="15.6" customHeight="1">
+    <row r="7" spans="1:43" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60"/>
       <c r="B7" s="7"/>
       <c r="C7" s="26"/>
@@ -6693,7 +6688,7 @@
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
     </row>
-    <row r="8" spans="1:43" ht="15.6" customHeight="1">
+    <row r="8" spans="1:43" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="60"/>
       <c r="B8" s="7"/>
       <c r="C8" s="26"/>
@@ -6738,7 +6733,7 @@
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
     </row>
-    <row r="9" spans="1:43" ht="15" customHeight="1">
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60"/>
       <c r="B9" s="7"/>
       <c r="C9" s="26"/>
@@ -6783,7 +6778,7 @@
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
     </row>
-    <row r="10" spans="1:43" ht="15" customHeight="1">
+    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60"/>
       <c r="B10" s="7"/>
       <c r="C10" s="26"/>
@@ -6828,7 +6823,7 @@
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
     </row>
-    <row r="11" spans="1:43" ht="15" customHeight="1">
+    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60"/>
       <c r="B11" s="7"/>
       <c r="C11" s="26"/>
@@ -6873,7 +6868,7 @@
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
     </row>
-    <row r="12" spans="1:43" ht="15" customHeight="1">
+    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
       <c r="B12" s="7"/>
       <c r="C12" s="26"/>
@@ -6918,7 +6913,7 @@
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
     </row>
-    <row r="13" spans="1:43" ht="15" customHeight="1">
+    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -6962,7 +6957,7 @@
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
     </row>
-    <row r="14" spans="1:43" ht="15" customHeight="1">
+    <row r="14" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -7006,7 +7001,7 @@
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
     </row>
-    <row r="15" spans="1:43" ht="15" customHeight="1">
+    <row r="15" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -7050,7 +7045,7 @@
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
     </row>
-    <row r="16" spans="1:43" ht="15" customHeight="1">
+    <row r="16" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -7094,7 +7089,7 @@
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
     </row>
-    <row r="17" spans="2:43" ht="15" customHeight="1">
+    <row r="17" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -7138,7 +7133,7 @@
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
     </row>
-    <row r="18" spans="2:43" ht="15" customHeight="1">
+    <row r="18" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -7182,7 +7177,7 @@
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
     </row>
-    <row r="19" spans="2:43" ht="15" customHeight="1">
+    <row r="19" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -7226,7 +7221,7 @@
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7"/>
     </row>
-    <row r="20" spans="2:43" ht="15" customHeight="1">
+    <row r="20" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -7270,7 +7265,7 @@
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
     </row>
-    <row r="21" spans="2:43" ht="15" customHeight="1">
+    <row r="21" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="7"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -7314,7 +7309,7 @@
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
     </row>
-    <row r="22" spans="2:43" ht="15" customHeight="1">
+    <row r="22" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -7358,7 +7353,7 @@
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
     </row>
-    <row r="23" spans="2:43" ht="15" customHeight="1">
+    <row r="23" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -7402,7 +7397,7 @@
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
     </row>
-    <row r="24" spans="2:43" ht="15" customHeight="1">
+    <row r="24" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -7446,7 +7441,7 @@
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
     </row>
-    <row r="25" spans="2:43" ht="15" customHeight="1">
+    <row r="25" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -7490,7 +7485,7 @@
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
     </row>
-    <row r="26" spans="2:43" ht="15" customHeight="1">
+    <row r="26" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -7534,7 +7529,7 @@
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
     </row>
-    <row r="27" spans="2:43" ht="15" customHeight="1">
+    <row r="27" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -7578,7 +7573,7 @@
       <c r="AP27" s="7"/>
       <c r="AQ27" s="7"/>
     </row>
-    <row r="28" spans="2:43" ht="15" customHeight="1">
+    <row r="28" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -7622,7 +7617,7 @@
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
     </row>
-    <row r="29" spans="2:43" ht="15" customHeight="1">
+    <row r="29" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -7666,7 +7661,7 @@
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
     </row>
-    <row r="30" spans="2:43" ht="15" customHeight="1">
+    <row r="30" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -7710,7 +7705,7 @@
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
     </row>
-    <row r="31" spans="2:43" ht="15" customHeight="1">
+    <row r="31" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="7"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
@@ -7754,7 +7749,7 @@
       <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
     </row>
-    <row r="32" spans="2:43" ht="15" customHeight="1">
+    <row r="32" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="7"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -7798,7 +7793,7 @@
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
     </row>
-    <row r="33" spans="2:43" ht="15" customHeight="1">
+    <row r="33" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="7"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -7842,7 +7837,7 @@
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
     </row>
-    <row r="34" spans="2:43" ht="15" customHeight="1">
+    <row r="34" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="7"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -7886,7 +7881,7 @@
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
     </row>
-    <row r="35" spans="2:43" ht="15" customHeight="1">
+    <row r="35" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="7"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -7930,7 +7925,7 @@
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
     </row>
-    <row r="36" spans="2:43" ht="15" customHeight="1">
+    <row r="36" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -7974,7 +7969,7 @@
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
     </row>
-    <row r="37" spans="2:43" ht="15" customHeight="1">
+    <row r="37" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
@@ -8018,7 +8013,7 @@
       <c r="AP37" s="7"/>
       <c r="AQ37" s="7"/>
     </row>
-    <row r="38" spans="2:43" ht="15" customHeight="1">
+    <row r="38" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="7"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -8062,7 +8057,7 @@
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
     </row>
-    <row r="39" spans="2:43" ht="15" customHeight="1">
+    <row r="39" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="7"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -8106,7 +8101,7 @@
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
     </row>
-    <row r="40" spans="2:43" ht="15" customHeight="1">
+    <row r="40" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="7"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -8150,7 +8145,7 @@
       <c r="AP40" s="7"/>
       <c r="AQ40" s="7"/>
     </row>
-    <row r="41" spans="2:43" ht="15" customHeight="1">
+    <row r="41" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -8194,7 +8189,7 @@
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
     </row>
-    <row r="42" spans="2:43" ht="15" customHeight="1">
+    <row r="42" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
@@ -8238,7 +8233,7 @@
       <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
     </row>
-    <row r="43" spans="2:43" ht="15" customHeight="1">
+    <row r="43" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -8282,7 +8277,7 @@
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
     </row>
-    <row r="44" spans="2:43" ht="15" customHeight="1">
+    <row r="44" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -8326,7 +8321,7 @@
       <c r="AP44" s="7"/>
       <c r="AQ44" s="7"/>
     </row>
-    <row r="45" spans="2:43" ht="15" customHeight="1">
+    <row r="45" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
@@ -8370,7 +8365,7 @@
       <c r="AP45" s="7"/>
       <c r="AQ45" s="7"/>
     </row>
-    <row r="46" spans="2:43" ht="15" customHeight="1">
+    <row r="46" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
@@ -8414,7 +8409,7 @@
       <c r="AP46" s="7"/>
       <c r="AQ46" s="7"/>
     </row>
-    <row r="47" spans="2:43" ht="15" customHeight="1">
+    <row r="47" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="7"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -8458,7 +8453,7 @@
       <c r="AP47" s="7"/>
       <c r="AQ47" s="7"/>
     </row>
-    <row r="48" spans="2:43" ht="15" customHeight="1">
+    <row r="48" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
@@ -8502,7 +8497,7 @@
       <c r="AP48" s="7"/>
       <c r="AQ48" s="7"/>
     </row>
-    <row r="49" spans="2:43" ht="15" customHeight="1">
+    <row r="49" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
@@ -8546,7 +8541,7 @@
       <c r="AP49" s="7"/>
       <c r="AQ49" s="7"/>
     </row>
-    <row r="50" spans="2:43" ht="15" customHeight="1">
+    <row r="50" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
@@ -8590,7 +8585,7 @@
       <c r="AP50" s="7"/>
       <c r="AQ50" s="7"/>
     </row>
-    <row r="51" spans="2:43" ht="15" customHeight="1">
+    <row r="51" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="7"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
@@ -8634,7 +8629,7 @@
       <c r="AP51" s="7"/>
       <c r="AQ51" s="7"/>
     </row>
-    <row r="52" spans="2:43" ht="15" customHeight="1">
+    <row r="52" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="7"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -8678,7 +8673,7 @@
       <c r="AP52" s="7"/>
       <c r="AQ52" s="7"/>
     </row>
-    <row r="53" spans="2:43" ht="15" customHeight="1">
+    <row r="53" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="7"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -8722,7 +8717,7 @@
       <c r="AP53" s="7"/>
       <c r="AQ53" s="7"/>
     </row>
-    <row r="54" spans="2:43" ht="15" customHeight="1">
+    <row r="54" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -8766,7 +8761,7 @@
       <c r="AP54" s="7"/>
       <c r="AQ54" s="7"/>
     </row>
-    <row r="55" spans="2:43" ht="15" customHeight="1">
+    <row r="55" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -8810,7 +8805,7 @@
       <c r="AP55" s="7"/>
       <c r="AQ55" s="7"/>
     </row>
-    <row r="56" spans="2:43" ht="15" customHeight="1">
+    <row r="56" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="7"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -8854,7 +8849,7 @@
       <c r="AP56" s="7"/>
       <c r="AQ56" s="7"/>
     </row>
-    <row r="57" spans="2:43" ht="15" customHeight="1">
+    <row r="57" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="7"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -8898,7 +8893,7 @@
       <c r="AP57" s="7"/>
       <c r="AQ57" s="7"/>
     </row>
-    <row r="58" spans="2:43" ht="15" customHeight="1">
+    <row r="58" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="7"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -8942,7 +8937,7 @@
       <c r="AP58" s="7"/>
       <c r="AQ58" s="7"/>
     </row>
-    <row r="59" spans="2:43" ht="15" customHeight="1">
+    <row r="59" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="7"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -8986,7 +8981,7 @@
       <c r="AP59" s="7"/>
       <c r="AQ59" s="7"/>
     </row>
-    <row r="60" spans="2:43" ht="15" customHeight="1">
+    <row r="60" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="7"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -9030,7 +9025,7 @@
       <c r="AP60" s="7"/>
       <c r="AQ60" s="7"/>
     </row>
-    <row r="61" spans="2:43" ht="15" customHeight="1">
+    <row r="61" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="7"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
@@ -9074,7 +9069,7 @@
       <c r="AP61" s="7"/>
       <c r="AQ61" s="7"/>
     </row>
-    <row r="62" spans="2:43" ht="15" customHeight="1">
+    <row r="62" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
@@ -9118,7 +9113,7 @@
       <c r="AP62" s="7"/>
       <c r="AQ62" s="7"/>
     </row>
-    <row r="63" spans="2:43" ht="15" customHeight="1">
+    <row r="63" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
@@ -9162,7 +9157,7 @@
       <c r="AP63" s="7"/>
       <c r="AQ63" s="7"/>
     </row>
-    <row r="64" spans="2:43" ht="15" customHeight="1">
+    <row r="64" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="7"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
@@ -9206,7 +9201,7 @@
       <c r="AP64" s="7"/>
       <c r="AQ64" s="7"/>
     </row>
-    <row r="65" spans="2:43" ht="15" customHeight="1">
+    <row r="65" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="7"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
@@ -9250,7 +9245,7 @@
       <c r="AP65" s="7"/>
       <c r="AQ65" s="7"/>
     </row>
-    <row r="66" spans="2:43" ht="15" customHeight="1">
+    <row r="66" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="7"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
@@ -9294,7 +9289,7 @@
       <c r="AP66" s="7"/>
       <c r="AQ66" s="7"/>
     </row>
-    <row r="67" spans="2:43" ht="15" customHeight="1">
+    <row r="67" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="7"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
@@ -9338,7 +9333,7 @@
       <c r="AP67" s="7"/>
       <c r="AQ67" s="7"/>
     </row>
-    <row r="68" spans="2:43" ht="15" customHeight="1">
+    <row r="68" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="7"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
@@ -9382,7 +9377,7 @@
       <c r="AP68" s="7"/>
       <c r="AQ68" s="7"/>
     </row>
-    <row r="69" spans="2:43" ht="15" customHeight="1">
+    <row r="69" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="7"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
@@ -9426,7 +9421,7 @@
       <c r="AP69" s="7"/>
       <c r="AQ69" s="7"/>
     </row>
-    <row r="70" spans="2:43" ht="15" customHeight="1">
+    <row r="70" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="7"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
@@ -9470,7 +9465,7 @@
       <c r="AP70" s="7"/>
       <c r="AQ70" s="7"/>
     </row>
-    <row r="71" spans="2:43" ht="15" customHeight="1">
+    <row r="71" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="7"/>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
@@ -9514,7 +9509,7 @@
       <c r="AP71" s="7"/>
       <c r="AQ71" s="7"/>
     </row>
-    <row r="72" spans="2:43" ht="15" customHeight="1">
+    <row r="72" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="7"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
@@ -9558,7 +9553,7 @@
       <c r="AP72" s="7"/>
       <c r="AQ72" s="7"/>
     </row>
-    <row r="73" spans="2:43" ht="15" customHeight="1">
+    <row r="73" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="7"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
@@ -9602,7 +9597,7 @@
       <c r="AP73" s="7"/>
       <c r="AQ73" s="7"/>
     </row>
-    <row r="74" spans="2:43" ht="15" customHeight="1">
+    <row r="74" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="7"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
@@ -9646,7 +9641,7 @@
       <c r="AP74" s="7"/>
       <c r="AQ74" s="7"/>
     </row>
-    <row r="75" spans="2:43" ht="15" customHeight="1">
+    <row r="75" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="7"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
@@ -9690,7 +9685,7 @@
       <c r="AP75" s="7"/>
       <c r="AQ75" s="7"/>
     </row>
-    <row r="76" spans="2:43" ht="15" customHeight="1">
+    <row r="76" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="7"/>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -9734,7 +9729,7 @@
       <c r="AP76" s="7"/>
       <c r="AQ76" s="7"/>
     </row>
-    <row r="77" spans="2:43" ht="15" customHeight="1">
+    <row r="77" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="7"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
@@ -9778,7 +9773,7 @@
       <c r="AP77" s="7"/>
       <c r="AQ77" s="7"/>
     </row>
-    <row r="78" spans="2:43" ht="15" customHeight="1">
+    <row r="78" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="7"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
@@ -9822,7 +9817,7 @@
       <c r="AP78" s="7"/>
       <c r="AQ78" s="7"/>
     </row>
-    <row r="79" spans="2:43" ht="15" customHeight="1">
+    <row r="79" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="7"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
@@ -9866,7 +9861,7 @@
       <c r="AP79" s="7"/>
       <c r="AQ79" s="7"/>
     </row>
-    <row r="80" spans="2:43" ht="15" customHeight="1">
+    <row r="80" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="7"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -9910,7 +9905,7 @@
       <c r="AP80" s="7"/>
       <c r="AQ80" s="7"/>
     </row>
-    <row r="81" spans="2:43" ht="15" customHeight="1">
+    <row r="81" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="7"/>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
@@ -9954,7 +9949,7 @@
       <c r="AP81" s="7"/>
       <c r="AQ81" s="7"/>
     </row>
-    <row r="82" spans="2:43" ht="15" customHeight="1">
+    <row r="82" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="7"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -9998,7 +9993,7 @@
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
     </row>
-    <row r="83" spans="2:43" ht="15" customHeight="1">
+    <row r="83" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="7"/>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
@@ -10042,7 +10037,7 @@
       <c r="AP83" s="7"/>
       <c r="AQ83" s="7"/>
     </row>
-    <row r="84" spans="2:43" ht="15" customHeight="1">
+    <row r="84" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="7"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
@@ -10086,7 +10081,7 @@
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
     </row>
-    <row r="85" spans="2:43" ht="15" customHeight="1">
+    <row r="85" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="7"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
@@ -10130,7 +10125,7 @@
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
     </row>
-    <row r="86" spans="2:43" ht="15" customHeight="1">
+    <row r="86" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="7"/>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
@@ -10174,7 +10169,7 @@
       <c r="AP86" s="7"/>
       <c r="AQ86" s="7"/>
     </row>
-    <row r="87" spans="2:43" ht="15" customHeight="1">
+    <row r="87" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="7"/>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
@@ -10218,7 +10213,7 @@
       <c r="AP87" s="7"/>
       <c r="AQ87" s="7"/>
     </row>
-    <row r="88" spans="2:43" ht="15" customHeight="1">
+    <row r="88" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="7"/>
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
@@ -10262,7 +10257,7 @@
       <c r="AP88" s="7"/>
       <c r="AQ88" s="7"/>
     </row>
-    <row r="89" spans="2:43" ht="15" customHeight="1">
+    <row r="89" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="7"/>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
@@ -10306,7 +10301,7 @@
       <c r="AP89" s="7"/>
       <c r="AQ89" s="7"/>
     </row>
-    <row r="90" spans="2:43" ht="15" customHeight="1">
+    <row r="90" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="7"/>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -10350,7 +10345,7 @@
       <c r="AP90" s="7"/>
       <c r="AQ90" s="7"/>
     </row>
-    <row r="91" spans="2:43" ht="15" customHeight="1">
+    <row r="91" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="7"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
@@ -10394,7 +10389,7 @@
       <c r="AP91" s="7"/>
       <c r="AQ91" s="7"/>
     </row>
-    <row r="92" spans="2:43" ht="15" customHeight="1">
+    <row r="92" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="7"/>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
@@ -10438,7 +10433,7 @@
       <c r="AP92" s="7"/>
       <c r="AQ92" s="7"/>
     </row>
-    <row r="93" spans="2:43" ht="15" customHeight="1">
+    <row r="93" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="7"/>
       <c r="C93" s="26"/>
       <c r="D93" s="26"/>
@@ -10482,7 +10477,7 @@
       <c r="AP93" s="7"/>
       <c r="AQ93" s="7"/>
     </row>
-    <row r="94" spans="2:43" ht="15" customHeight="1">
+    <row r="94" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="7"/>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
@@ -10526,7 +10521,7 @@
       <c r="AP94" s="7"/>
       <c r="AQ94" s="7"/>
     </row>
-    <row r="95" spans="2:43" ht="15" customHeight="1">
+    <row r="95" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="7"/>
       <c r="C95" s="26"/>
       <c r="D95" s="26"/>
@@ -10570,7 +10565,7 @@
       <c r="AP95" s="7"/>
       <c r="AQ95" s="7"/>
     </row>
-    <row r="96" spans="2:43" ht="15" customHeight="1">
+    <row r="96" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="7"/>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
@@ -10614,7 +10609,7 @@
       <c r="AP96" s="7"/>
       <c r="AQ96" s="7"/>
     </row>
-    <row r="97" spans="2:43" ht="15" customHeight="1">
+    <row r="97" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="7"/>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
@@ -10658,7 +10653,7 @@
       <c r="AP97" s="7"/>
       <c r="AQ97" s="7"/>
     </row>
-    <row r="98" spans="2:43" ht="15" customHeight="1">
+    <row r="98" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="7"/>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
@@ -10702,7 +10697,7 @@
       <c r="AP98" s="7"/>
       <c r="AQ98" s="7"/>
     </row>
-    <row r="99" spans="2:43" ht="15" customHeight="1">
+    <row r="99" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="7"/>
       <c r="C99" s="26"/>
       <c r="D99" s="26"/>
@@ -10746,7 +10741,7 @@
       <c r="AP99" s="7"/>
       <c r="AQ99" s="7"/>
     </row>
-    <row r="100" spans="2:43" ht="15" customHeight="1">
+    <row r="100" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="7"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
@@ -10790,7 +10785,7 @@
       <c r="AP100" s="7"/>
       <c r="AQ100" s="7"/>
     </row>
-    <row r="101" spans="2:43" ht="15" customHeight="1">
+    <row r="101" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="7"/>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
@@ -10834,7 +10829,7 @@
       <c r="AP101" s="7"/>
       <c r="AQ101" s="7"/>
     </row>
-    <row r="102" spans="2:43" ht="15" customHeight="1">
+    <row r="102" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="7"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
@@ -10878,7 +10873,7 @@
       <c r="AP102" s="7"/>
       <c r="AQ102" s="7"/>
     </row>
-    <row r="103" spans="2:43" ht="15" customHeight="1">
+    <row r="103" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="26"/>
       <c r="D103" s="26"/>
@@ -10922,7 +10917,7 @@
       <c r="AP103" s="7"/>
       <c r="AQ103" s="7"/>
     </row>
-    <row r="104" spans="2:43" ht="15" customHeight="1">
+    <row r="104" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="7"/>
       <c r="C104" s="26"/>
       <c r="D104" s="26"/>
@@ -10966,7 +10961,7 @@
       <c r="AP104" s="8"/>
       <c r="AQ104" s="8"/>
     </row>
-    <row r="105" spans="2:43" ht="15" customHeight="1">
+    <row r="105" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="7"/>
       <c r="C105" s="26"/>
       <c r="D105" s="26"/>
@@ -11010,7 +11005,7 @@
       <c r="AP105" s="8"/>
       <c r="AQ105" s="8"/>
     </row>
-    <row r="106" spans="2:43" ht="15" customHeight="1">
+    <row r="106" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="7"/>
       <c r="C106" s="26"/>
       <c r="D106" s="26"/>
@@ -11054,7 +11049,7 @@
       <c r="AP106" s="8"/>
       <c r="AQ106" s="8"/>
     </row>
-    <row r="107" spans="2:43" ht="15" customHeight="1">
+    <row r="107" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="7"/>
       <c r="C107" s="26"/>
       <c r="D107" s="26"/>
@@ -11098,7 +11093,7 @@
       <c r="AP107" s="8"/>
       <c r="AQ107" s="8"/>
     </row>
-    <row r="108" spans="2:43" ht="15" customHeight="1">
+    <row r="108" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="7"/>
       <c r="C108" s="26"/>
       <c r="D108" s="26"/>
@@ -11142,7 +11137,7 @@
       <c r="AP108" s="8"/>
       <c r="AQ108" s="8"/>
     </row>
-    <row r="109" spans="2:43" ht="15" customHeight="1">
+    <row r="109" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="7"/>
       <c r="C109" s="26"/>
       <c r="D109" s="26"/>
@@ -11186,7 +11181,7 @@
       <c r="AP109" s="8"/>
       <c r="AQ109" s="8"/>
     </row>
-    <row r="110" spans="2:43" ht="15" customHeight="1">
+    <row r="110" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="7"/>
       <c r="C110" s="26"/>
       <c r="D110" s="26"/>
@@ -11230,7 +11225,7 @@
       <c r="AP110" s="8"/>
       <c r="AQ110" s="8"/>
     </row>
-    <row r="111" spans="2:43" ht="15" customHeight="1">
+    <row r="111" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="7"/>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
@@ -11274,7 +11269,7 @@
       <c r="AP111" s="8"/>
       <c r="AQ111" s="8"/>
     </row>
-    <row r="112" spans="2:43" ht="15" customHeight="1">
+    <row r="112" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="7"/>
       <c r="C112" s="26"/>
       <c r="D112" s="26"/>
@@ -11318,7 +11313,7 @@
       <c r="AP112" s="8"/>
       <c r="AQ112" s="8"/>
     </row>
-    <row r="113" spans="2:43" ht="15" customHeight="1">
+    <row r="113" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="7"/>
       <c r="C113" s="26"/>
       <c r="D113" s="26"/>
@@ -11362,7 +11357,7 @@
       <c r="AP113" s="8"/>
       <c r="AQ113" s="8"/>
     </row>
-    <row r="114" spans="2:43" ht="15" customHeight="1">
+    <row r="114" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="7"/>
       <c r="C114" s="26"/>
       <c r="D114" s="26"/>
@@ -11406,7 +11401,7 @@
       <c r="AP114" s="8"/>
       <c r="AQ114" s="8"/>
     </row>
-    <row r="115" spans="2:43" ht="15" customHeight="1">
+    <row r="115" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="7"/>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
@@ -11450,7 +11445,7 @@
       <c r="AP115" s="8"/>
       <c r="AQ115" s="8"/>
     </row>
-    <row r="116" spans="2:43" ht="15" customHeight="1">
+    <row r="116" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="7"/>
       <c r="C116" s="26"/>
       <c r="D116" s="26"/>
@@ -11494,7 +11489,7 @@
       <c r="AP116" s="8"/>
       <c r="AQ116" s="8"/>
     </row>
-    <row r="117" spans="2:43" ht="15" customHeight="1">
+    <row r="117" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="7"/>
       <c r="C117" s="26"/>
       <c r="D117" s="26"/>
@@ -11538,7 +11533,7 @@
       <c r="AP117" s="8"/>
       <c r="AQ117" s="8"/>
     </row>
-    <row r="118" spans="2:43" ht="15" customHeight="1">
+    <row r="118" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="7"/>
       <c r="C118" s="26"/>
       <c r="D118" s="26"/>
@@ -11582,7 +11577,7 @@
       <c r="AP118" s="8"/>
       <c r="AQ118" s="8"/>
     </row>
-    <row r="119" spans="2:43" ht="15" customHeight="1">
+    <row r="119" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="7"/>
       <c r="C119" s="26"/>
       <c r="D119" s="26"/>
@@ -11626,7 +11621,7 @@
       <c r="AP119" s="8"/>
       <c r="AQ119" s="8"/>
     </row>
-    <row r="120" spans="2:43" ht="15" customHeight="1">
+    <row r="120" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B120" s="7"/>
       <c r="C120" s="26"/>
       <c r="D120" s="26"/>
@@ -11670,7 +11665,7 @@
       <c r="AP120" s="8"/>
       <c r="AQ120" s="8"/>
     </row>
-    <row r="121" spans="2:43" ht="15" customHeight="1">
+    <row r="121" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B121" s="7"/>
       <c r="C121" s="26"/>
       <c r="D121" s="26"/>
@@ -11714,7 +11709,7 @@
       <c r="AP121" s="8"/>
       <c r="AQ121" s="8"/>
     </row>
-    <row r="122" spans="2:43" ht="15" customHeight="1">
+    <row r="122" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B122" s="7"/>
       <c r="C122" s="26"/>
       <c r="D122" s="26"/>
@@ -11758,7 +11753,7 @@
       <c r="AP122" s="7"/>
       <c r="AQ122" s="7"/>
     </row>
-    <row r="123" spans="2:43" ht="15" customHeight="1">
+    <row r="123" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="7"/>
       <c r="C123" s="26"/>
       <c r="D123" s="26"/>
@@ -11802,7 +11797,7 @@
       <c r="AP123" s="7"/>
       <c r="AQ123" s="7"/>
     </row>
-    <row r="124" spans="2:43" ht="15" customHeight="1">
+    <row r="124" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B124" s="7"/>
       <c r="C124" s="26"/>
       <c r="D124" s="26"/>
@@ -11846,7 +11841,7 @@
       <c r="AP124" s="7"/>
       <c r="AQ124" s="7"/>
     </row>
-    <row r="125" spans="2:43" ht="15.6" customHeight="1">
+    <row r="125" spans="2:43" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B125" s="7"/>
       <c r="C125" s="26"/>
       <c r="D125" s="26"/>
@@ -11890,7 +11885,7 @@
       <c r="AP125" s="7"/>
       <c r="AQ125" s="7"/>
     </row>
-    <row r="126" spans="2:43" ht="15" customHeight="1">
+    <row r="126" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B126" s="7"/>
       <c r="C126" s="26"/>
       <c r="D126" s="26"/>
@@ -11934,7 +11929,7 @@
       <c r="AP126" s="7"/>
       <c r="AQ126" s="7"/>
     </row>
-    <row r="127" spans="2:43" ht="15" customHeight="1">
+    <row r="127" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B127" s="7"/>
       <c r="C127" s="26"/>
       <c r="D127" s="26"/>
@@ -11978,7 +11973,7 @@
       <c r="AP127" s="7"/>
       <c r="AQ127" s="7"/>
     </row>
-    <row r="128" spans="2:43" ht="15" customHeight="1">
+    <row r="128" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B128" s="7"/>
       <c r="C128" s="26"/>
       <c r="D128" s="26"/>
@@ -12022,7 +12017,7 @@
       <c r="AP128" s="7"/>
       <c r="AQ128" s="7"/>
     </row>
-    <row r="129" spans="2:43" ht="15" customHeight="1">
+    <row r="129" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" s="7"/>
       <c r="C129" s="26"/>
       <c r="D129" s="26"/>
@@ -12066,7 +12061,7 @@
       <c r="AP129" s="7"/>
       <c r="AQ129" s="7"/>
     </row>
-    <row r="130" spans="2:43" ht="15" customHeight="1">
+    <row r="130" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" s="7"/>
       <c r="C130" s="26"/>
       <c r="D130" s="26"/>
@@ -12110,7 +12105,7 @@
       <c r="AP130" s="7"/>
       <c r="AQ130" s="7"/>
     </row>
-    <row r="131" spans="2:43" ht="15" customHeight="1">
+    <row r="131" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="7"/>
       <c r="C131" s="26"/>
       <c r="D131" s="26"/>
@@ -12154,7 +12149,7 @@
       <c r="AP131" s="7"/>
       <c r="AQ131" s="7"/>
     </row>
-    <row r="132" spans="2:43" ht="15" customHeight="1">
+    <row r="132" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="7"/>
       <c r="C132" s="26"/>
       <c r="D132" s="26"/>
@@ -12198,7 +12193,7 @@
       <c r="AP132" s="7"/>
       <c r="AQ132" s="7"/>
     </row>
-    <row r="133" spans="2:43" ht="15" customHeight="1">
+    <row r="133" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" s="7"/>
       <c r="C133" s="26"/>
       <c r="D133" s="26"/>
@@ -12242,7 +12237,7 @@
       <c r="AP133" s="7"/>
       <c r="AQ133" s="7"/>
     </row>
-    <row r="134" spans="2:43" ht="15" customHeight="1">
+    <row r="134" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="7"/>
       <c r="C134" s="26"/>
       <c r="D134" s="26"/>
@@ -12286,7 +12281,7 @@
       <c r="AP134" s="7"/>
       <c r="AQ134" s="7"/>
     </row>
-    <row r="135" spans="2:43" ht="15" customHeight="1">
+    <row r="135" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="7"/>
       <c r="C135" s="26"/>
       <c r="D135" s="26"/>
@@ -12330,7 +12325,7 @@
       <c r="AP135" s="9"/>
       <c r="AQ135" s="9"/>
     </row>
-    <row r="136" spans="2:43" ht="15" customHeight="1">
+    <row r="136" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="7"/>
       <c r="C136" s="26"/>
       <c r="D136" s="26"/>
@@ -12374,7 +12369,7 @@
       <c r="AP136" s="9"/>
       <c r="AQ136" s="9"/>
     </row>
-    <row r="137" spans="2:43" ht="15" customHeight="1">
+    <row r="137" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B137" s="7"/>
       <c r="C137" s="26"/>
       <c r="D137" s="26"/>
@@ -12418,7 +12413,7 @@
       <c r="AP137" s="7"/>
       <c r="AQ137" s="7"/>
     </row>
-    <row r="138" spans="2:43" ht="15" customHeight="1">
+    <row r="138" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="7"/>
       <c r="C138" s="26"/>
       <c r="D138" s="26"/>
@@ -12462,7 +12457,7 @@
       <c r="AP138" s="7"/>
       <c r="AQ138" s="7"/>
     </row>
-    <row r="139" spans="2:43" ht="15" customHeight="1">
+    <row r="139" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B139" s="7"/>
       <c r="C139" s="26"/>
       <c r="D139" s="26"/>
@@ -12506,7 +12501,7 @@
       <c r="AP139" s="13"/>
       <c r="AQ139" s="13"/>
     </row>
-    <row r="140" spans="2:43" ht="15" customHeight="1">
+    <row r="140" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="7"/>
       <c r="C140" s="26"/>
       <c r="D140" s="26"/>
@@ -12550,7 +12545,7 @@
       <c r="AP140" s="7"/>
       <c r="AQ140" s="7"/>
     </row>
-    <row r="141" spans="2:43" ht="15" customHeight="1">
+    <row r="141" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="7"/>
       <c r="C141" s="26"/>
       <c r="D141" s="26"/>
@@ -12594,7 +12589,7 @@
       <c r="AP141" s="7"/>
       <c r="AQ141" s="7"/>
     </row>
-    <row r="142" spans="2:43" ht="15" customHeight="1">
+    <row r="142" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B142" s="7"/>
       <c r="C142" s="26"/>
       <c r="D142" s="26"/>
@@ -12638,7 +12633,7 @@
       <c r="AP142" s="7"/>
       <c r="AQ142" s="7"/>
     </row>
-    <row r="143" spans="2:43" ht="15" customHeight="1">
+    <row r="143" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="7"/>
       <c r="C143" s="26"/>
       <c r="D143" s="26"/>
@@ -12682,7 +12677,7 @@
       <c r="AP143" s="7"/>
       <c r="AQ143" s="7"/>
     </row>
-    <row r="144" spans="2:43" ht="15" customHeight="1">
+    <row r="144" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B144" s="7"/>
       <c r="C144" s="26"/>
       <c r="D144" s="26"/>
@@ -12726,7 +12721,7 @@
       <c r="AP144" s="7"/>
       <c r="AQ144" s="7"/>
     </row>
-    <row r="145" spans="2:43" ht="15" customHeight="1">
+    <row r="145" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="7"/>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
@@ -12770,7 +12765,7 @@
       <c r="AP145" s="7"/>
       <c r="AQ145" s="7"/>
     </row>
-    <row r="146" spans="2:43" ht="15" customHeight="1">
+    <row r="146" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="7"/>
       <c r="C146" s="26"/>
       <c r="D146" s="26"/>
@@ -12814,7 +12809,7 @@
       <c r="AP146" s="7"/>
       <c r="AQ146" s="7"/>
     </row>
-    <row r="147" spans="2:43" ht="15" customHeight="1">
+    <row r="147" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="7"/>
       <c r="C147" s="26"/>
       <c r="D147" s="26"/>
@@ -12858,7 +12853,7 @@
       <c r="AP147" s="7"/>
       <c r="AQ147" s="7"/>
     </row>
-    <row r="148" spans="2:43" ht="15" customHeight="1">
+    <row r="148" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="7"/>
       <c r="C148" s="26"/>
       <c r="D148" s="26"/>
@@ -12902,7 +12897,7 @@
       <c r="AP148" s="7"/>
       <c r="AQ148" s="7"/>
     </row>
-    <row r="149" spans="2:43" ht="15" customHeight="1">
+    <row r="149" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B149" s="7"/>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
@@ -12946,7 +12941,7 @@
       <c r="AP149" s="7"/>
       <c r="AQ149" s="7"/>
     </row>
-    <row r="150" spans="2:43" ht="15" customHeight="1">
+    <row r="150" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" s="7"/>
       <c r="C150" s="26"/>
       <c r="D150" s="26"/>
@@ -12990,7 +12985,7 @@
       <c r="AP150" s="7"/>
       <c r="AQ150" s="7"/>
     </row>
-    <row r="151" spans="2:43" ht="15" customHeight="1">
+    <row r="151" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B151" s="7"/>
       <c r="C151" s="26"/>
       <c r="D151" s="26"/>
@@ -13034,7 +13029,7 @@
       <c r="AP151" s="7"/>
       <c r="AQ151" s="7"/>
     </row>
-    <row r="152" spans="2:43" ht="15" customHeight="1">
+    <row r="152" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B152" s="7"/>
       <c r="C152" s="26"/>
       <c r="D152" s="26"/>
@@ -13078,7 +13073,7 @@
       <c r="AP152" s="7"/>
       <c r="AQ152" s="7"/>
     </row>
-    <row r="153" spans="2:43" ht="15" customHeight="1">
+    <row r="153" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B153" s="7"/>
       <c r="C153" s="26"/>
       <c r="D153" s="26"/>
@@ -13122,7 +13117,7 @@
       <c r="AP153" s="7"/>
       <c r="AQ153" s="7"/>
     </row>
-    <row r="154" spans="2:43" ht="15" customHeight="1">
+    <row r="154" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B154" s="7"/>
       <c r="C154" s="26"/>
       <c r="D154" s="26"/>
@@ -13166,7 +13161,7 @@
       <c r="AP154" s="7"/>
       <c r="AQ154" s="7"/>
     </row>
-    <row r="155" spans="2:43" ht="15" customHeight="1">
+    <row r="155" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B155" s="7"/>
       <c r="C155" s="26"/>
       <c r="D155" s="26"/>
@@ -13210,7 +13205,7 @@
       <c r="AP155" s="7"/>
       <c r="AQ155" s="7"/>
     </row>
-    <row r="156" spans="2:43" ht="15" customHeight="1">
+    <row r="156" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B156" s="7"/>
       <c r="C156" s="26"/>
       <c r="D156" s="26"/>
@@ -13254,7 +13249,7 @@
       <c r="AP156" s="7"/>
       <c r="AQ156" s="7"/>
     </row>
-    <row r="157" spans="2:43" ht="15" customHeight="1">
+    <row r="157" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B157" s="7"/>
       <c r="C157" s="26"/>
       <c r="D157" s="26"/>
@@ -13298,7 +13293,7 @@
       <c r="AP157" s="8"/>
       <c r="AQ157" s="8"/>
     </row>
-    <row r="158" spans="2:43" ht="15" customHeight="1">
+    <row r="158" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B158" s="7"/>
       <c r="C158" s="26"/>
       <c r="D158" s="26"/>
@@ -13342,7 +13337,7 @@
       <c r="AP158" s="8"/>
       <c r="AQ158" s="8"/>
     </row>
-    <row r="159" spans="2:43" ht="15" customHeight="1">
+    <row r="159" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B159" s="7"/>
       <c r="C159" s="26"/>
       <c r="D159" s="26"/>
@@ -13386,7 +13381,7 @@
       <c r="AP159" s="8"/>
       <c r="AQ159" s="8"/>
     </row>
-    <row r="160" spans="2:43" ht="15" customHeight="1">
+    <row r="160" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B160" s="7"/>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
@@ -13430,7 +13425,7 @@
       <c r="AP160" s="8"/>
       <c r="AQ160" s="8"/>
     </row>
-    <row r="161" spans="2:43" ht="15" customHeight="1">
+    <row r="161" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B161" s="7"/>
       <c r="C161" s="26"/>
       <c r="D161" s="26"/>
@@ -13474,7 +13469,7 @@
       <c r="AP161" s="8"/>
       <c r="AQ161" s="8"/>
     </row>
-    <row r="162" spans="2:43" ht="15" customHeight="1">
+    <row r="162" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B162" s="7"/>
       <c r="C162" s="26"/>
       <c r="D162" s="26"/>
@@ -13518,7 +13513,7 @@
       <c r="AP162" s="8"/>
       <c r="AQ162" s="8"/>
     </row>
-    <row r="163" spans="2:43" ht="15" customHeight="1">
+    <row r="163" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B163" s="7"/>
       <c r="C163" s="26"/>
       <c r="D163" s="26"/>
@@ -13562,7 +13557,7 @@
       <c r="AP163" s="8"/>
       <c r="AQ163" s="8"/>
     </row>
-    <row r="164" spans="2:43" ht="15" customHeight="1">
+    <row r="164" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B164" s="7"/>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
@@ -13606,7 +13601,7 @@
       <c r="AP164" s="8"/>
       <c r="AQ164" s="8"/>
     </row>
-    <row r="165" spans="2:43" ht="15" customHeight="1">
+    <row r="165" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B165" s="7"/>
       <c r="C165" s="26"/>
       <c r="D165" s="26"/>
@@ -13650,7 +13645,7 @@
       <c r="AP165" s="8"/>
       <c r="AQ165" s="8"/>
     </row>
-    <row r="166" spans="2:43" ht="15" customHeight="1">
+    <row r="166" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B166" s="7"/>
       <c r="C166" s="26"/>
       <c r="D166" s="26"/>
@@ -13694,7 +13689,7 @@
       <c r="AP166" s="8"/>
       <c r="AQ166" s="8"/>
     </row>
-    <row r="167" spans="2:43" ht="15" customHeight="1">
+    <row r="167" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B167" s="7"/>
       <c r="C167" s="26"/>
       <c r="D167" s="26"/>
@@ -13738,7 +13733,7 @@
       <c r="AP167" s="8"/>
       <c r="AQ167" s="8"/>
     </row>
-    <row r="168" spans="2:43" ht="15" customHeight="1">
+    <row r="168" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B168" s="7"/>
       <c r="C168" s="26"/>
       <c r="D168" s="26"/>
@@ -13782,7 +13777,7 @@
       <c r="AP168" s="8"/>
       <c r="AQ168" s="8"/>
     </row>
-    <row r="169" spans="2:43" ht="15" customHeight="1">
+    <row r="169" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B169" s="7"/>
       <c r="C169" s="26"/>
       <c r="D169" s="26"/>
@@ -13826,7 +13821,7 @@
       <c r="AP169" s="8"/>
       <c r="AQ169" s="8"/>
     </row>
-    <row r="170" spans="2:43" ht="15" customHeight="1">
+    <row r="170" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B170" s="7"/>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
@@ -13870,7 +13865,7 @@
       <c r="AP170" s="8"/>
       <c r="AQ170" s="8"/>
     </row>
-    <row r="171" spans="2:43" ht="15" customHeight="1">
+    <row r="171" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B171" s="7"/>
       <c r="C171" s="26"/>
       <c r="D171" s="26"/>
@@ -13914,7 +13909,7 @@
       <c r="AP171" s="8"/>
       <c r="AQ171" s="8"/>
     </row>
-    <row r="172" spans="2:43" ht="15" customHeight="1">
+    <row r="172" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B172" s="7"/>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
@@ -13958,7 +13953,7 @@
       <c r="AP172" s="8"/>
       <c r="AQ172" s="8"/>
     </row>
-    <row r="173" spans="2:43" ht="15" customHeight="1">
+    <row r="173" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B173" s="7"/>
       <c r="C173" s="26"/>
       <c r="D173" s="26"/>
@@ -14002,7 +13997,7 @@
       <c r="AP173" s="8"/>
       <c r="AQ173" s="8"/>
     </row>
-    <row r="174" spans="2:43" ht="15" customHeight="1">
+    <row r="174" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B174" s="7"/>
       <c r="C174" s="26"/>
       <c r="D174" s="26"/>
@@ -14046,7 +14041,7 @@
       <c r="AP174" s="8"/>
       <c r="AQ174" s="8"/>
     </row>
-    <row r="175" spans="2:43" ht="15" customHeight="1">
+    <row r="175" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B175" s="7"/>
       <c r="C175" s="26"/>
       <c r="D175" s="26"/>
@@ -14090,7 +14085,7 @@
       <c r="AP175" s="8"/>
       <c r="AQ175" s="8"/>
     </row>
-    <row r="176" spans="2:43" ht="15" customHeight="1">
+    <row r="176" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B176" s="7"/>
       <c r="C176" s="26"/>
       <c r="D176" s="26"/>
@@ -14134,7 +14129,7 @@
       <c r="AP176" s="8"/>
       <c r="AQ176" s="8"/>
     </row>
-    <row r="177" spans="2:43" ht="15" customHeight="1">
+    <row r="177" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B177" s="7"/>
       <c r="C177" s="26"/>
       <c r="D177" s="26"/>
@@ -14178,7 +14173,7 @@
       <c r="AP177" s="8"/>
       <c r="AQ177" s="8"/>
     </row>
-    <row r="178" spans="2:43" ht="15" customHeight="1">
+    <row r="178" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B178" s="7"/>
       <c r="C178" s="26"/>
       <c r="D178" s="26"/>
@@ -14222,7 +14217,7 @@
       <c r="AP178" s="8"/>
       <c r="AQ178" s="8"/>
     </row>
-    <row r="179" spans="2:43" ht="15" customHeight="1">
+    <row r="179" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B179" s="7"/>
       <c r="C179" s="26"/>
       <c r="D179" s="26"/>
@@ -14266,7 +14261,7 @@
       <c r="AP179" s="8"/>
       <c r="AQ179" s="8"/>
     </row>
-    <row r="180" spans="2:43" ht="15" customHeight="1">
+    <row r="180" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B180" s="7"/>
       <c r="C180" s="26"/>
       <c r="D180" s="26"/>
@@ -14310,7 +14305,7 @@
       <c r="AP180" s="8"/>
       <c r="AQ180" s="8"/>
     </row>
-    <row r="181" spans="2:43" ht="15" customHeight="1">
+    <row r="181" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B181" s="7"/>
       <c r="C181" s="26"/>
       <c r="D181" s="26"/>
@@ -14354,7 +14349,7 @@
       <c r="AP181" s="8"/>
       <c r="AQ181" s="8"/>
     </row>
-    <row r="182" spans="2:43" ht="15" customHeight="1">
+    <row r="182" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B182" s="7"/>
       <c r="C182" s="26"/>
       <c r="D182" s="26"/>
@@ -14398,7 +14393,7 @@
       <c r="AP182" s="8"/>
       <c r="AQ182" s="8"/>
     </row>
-    <row r="183" spans="2:43" ht="15" customHeight="1">
+    <row r="183" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B183" s="7"/>
       <c r="C183" s="26"/>
       <c r="D183" s="26"/>
@@ -14442,7 +14437,7 @@
       <c r="AP183" s="8"/>
       <c r="AQ183" s="8"/>
     </row>
-    <row r="184" spans="2:43" ht="15" customHeight="1">
+    <row r="184" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B184" s="7"/>
       <c r="C184" s="26"/>
       <c r="D184" s="26"/>
@@ -14486,7 +14481,7 @@
       <c r="AP184" s="8"/>
       <c r="AQ184" s="8"/>
     </row>
-    <row r="185" spans="2:43" ht="16.5" customHeight="1">
+    <row r="185" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B185" s="7"/>
       <c r="C185" s="26"/>
       <c r="D185" s="26"/>
@@ -14530,7 +14525,7 @@
       <c r="AP185" s="8"/>
       <c r="AQ185" s="8"/>
     </row>
-    <row r="186" spans="2:43" ht="16.5" customHeight="1">
+    <row r="186" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B186" s="7"/>
       <c r="C186" s="26"/>
       <c r="D186" s="26"/>
@@ -14574,7 +14569,7 @@
       <c r="AP186" s="8"/>
       <c r="AQ186" s="8"/>
     </row>
-    <row r="187" spans="2:43" ht="16.5" customHeight="1">
+    <row r="187" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B187" s="7"/>
       <c r="C187" s="26"/>
       <c r="D187" s="26"/>
@@ -14618,7 +14613,7 @@
       <c r="AP187" s="8"/>
       <c r="AQ187" s="8"/>
     </row>
-    <row r="188" spans="2:43" ht="16.5" customHeight="1">
+    <row r="188" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B188" s="7"/>
       <c r="C188" s="26"/>
       <c r="D188" s="26"/>
@@ -14662,7 +14657,7 @@
       <c r="AP188" s="8"/>
       <c r="AQ188" s="8"/>
     </row>
-    <row r="189" spans="2:43" ht="16.5" customHeight="1">
+    <row r="189" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B189" s="7"/>
       <c r="C189" s="26"/>
       <c r="D189" s="26"/>
@@ -14706,7 +14701,7 @@
       <c r="AP189" s="8"/>
       <c r="AQ189" s="8"/>
     </row>
-    <row r="190" spans="2:43" ht="16.5" customHeight="1">
+    <row r="190" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B190" s="7"/>
       <c r="C190" s="26"/>
       <c r="D190" s="26"/>
@@ -14750,7 +14745,7 @@
       <c r="AP190" s="8"/>
       <c r="AQ190" s="8"/>
     </row>
-    <row r="191" spans="2:43" ht="16.5" customHeight="1">
+    <row r="191" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B191" s="7"/>
       <c r="C191" s="26"/>
       <c r="D191" s="26"/>
@@ -14794,7 +14789,7 @@
       <c r="AP191" s="8"/>
       <c r="AQ191" s="8"/>
     </row>
-    <row r="192" spans="2:43" ht="16.5" customHeight="1">
+    <row r="192" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B192" s="7"/>
       <c r="C192" s="26"/>
       <c r="D192" s="26"/>
@@ -14838,7 +14833,7 @@
       <c r="AP192" s="8"/>
       <c r="AQ192" s="8"/>
     </row>
-    <row r="193" spans="2:43" ht="16.5" customHeight="1">
+    <row r="193" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B193" s="7"/>
       <c r="C193" s="26"/>
       <c r="D193" s="26"/>
@@ -14882,7 +14877,7 @@
       <c r="AP193" s="7"/>
       <c r="AQ193" s="7"/>
     </row>
-    <row r="194" spans="2:43" ht="16.5" customHeight="1">
+    <row r="194" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B194" s="7"/>
       <c r="C194" s="26"/>
       <c r="D194" s="26"/>
@@ -14926,7 +14921,7 @@
       <c r="AP194" s="7"/>
       <c r="AQ194" s="7"/>
     </row>
-    <row r="195" spans="2:43" ht="16.5" customHeight="1">
+    <row r="195" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B195" s="7"/>
       <c r="C195" s="26"/>
       <c r="D195" s="26"/>
@@ -14970,7 +14965,7 @@
       <c r="AP195" s="7"/>
       <c r="AQ195" s="7"/>
     </row>
-    <row r="196" spans="2:43" ht="16.5" customHeight="1">
+    <row r="196" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B196" s="7"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26"/>
@@ -15014,7 +15009,7 @@
       <c r="AP196" s="7"/>
       <c r="AQ196" s="7"/>
     </row>
-    <row r="197" spans="2:43" ht="16.5" customHeight="1">
+    <row r="197" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B197" s="7"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26"/>
@@ -15058,7 +15053,7 @@
       <c r="AP197" s="7"/>
       <c r="AQ197" s="7"/>
     </row>
-    <row r="198" spans="2:43" ht="16.5" customHeight="1">
+    <row r="198" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B198" s="7"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26"/>
@@ -15102,7 +15097,7 @@
       <c r="AP198" s="7"/>
       <c r="AQ198" s="7"/>
     </row>
-    <row r="199" spans="2:43" ht="16.5" customHeight="1">
+    <row r="199" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B199" s="7"/>
       <c r="C199" s="26"/>
       <c r="D199" s="26"/>
@@ -15146,7 +15141,7 @@
       <c r="AP199" s="7"/>
       <c r="AQ199" s="7"/>
     </row>
-    <row r="200" spans="2:43" ht="16.5" customHeight="1">
+    <row r="200" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B200" s="7"/>
       <c r="C200" s="26"/>
       <c r="D200" s="26"/>
@@ -15190,7 +15185,7 @@
       <c r="AP200" s="7"/>
       <c r="AQ200" s="7"/>
     </row>
-    <row r="201" spans="2:43" ht="16.5" customHeight="1">
+    <row r="201" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B201" s="7"/>
       <c r="C201" s="26"/>
       <c r="D201" s="26"/>
@@ -15234,7 +15229,7 @@
       <c r="AP201" s="7"/>
       <c r="AQ201" s="7"/>
     </row>
-    <row r="202" spans="2:43" ht="16.5" customHeight="1">
+    <row r="202" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B202" s="7"/>
       <c r="C202" s="26"/>
       <c r="D202" s="26"/>
@@ -15278,7 +15273,7 @@
       <c r="AP202" s="7"/>
       <c r="AQ202" s="7"/>
     </row>
-    <row r="203" spans="2:43" ht="16.5" customHeight="1">
+    <row r="203" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B203" s="7"/>
       <c r="C203" s="26"/>
       <c r="D203" s="26"/>
@@ -15322,7 +15317,7 @@
       <c r="AP203" s="7"/>
       <c r="AQ203" s="7"/>
     </row>
-    <row r="204" spans="2:43" ht="16.5" customHeight="1">
+    <row r="204" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B204" s="7"/>
       <c r="C204" s="26"/>
       <c r="D204" s="26"/>
@@ -15366,7 +15361,7 @@
       <c r="AP204" s="7"/>
       <c r="AQ204" s="7"/>
     </row>
-    <row r="205" spans="2:43" ht="16.5" customHeight="1">
+    <row r="205" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B205" s="7"/>
       <c r="C205" s="26"/>
       <c r="D205" s="26"/>
@@ -15410,7 +15405,7 @@
       <c r="AP205" s="7"/>
       <c r="AQ205" s="7"/>
     </row>
-    <row r="206" spans="2:43" ht="16.5" customHeight="1">
+    <row r="206" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B206" s="7"/>
       <c r="C206" s="26"/>
       <c r="D206" s="26"/>
@@ -15454,7 +15449,7 @@
       <c r="AP206" s="7"/>
       <c r="AQ206" s="7"/>
     </row>
-    <row r="207" spans="2:43" ht="16.5" customHeight="1">
+    <row r="207" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B207" s="7"/>
       <c r="C207" s="26"/>
       <c r="D207" s="26"/>
@@ -15498,7 +15493,7 @@
       <c r="AP207" s="7"/>
       <c r="AQ207" s="7"/>
     </row>
-    <row r="208" spans="2:43" ht="16.5" customHeight="1">
+    <row r="208" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B208" s="7"/>
       <c r="C208" s="26"/>
       <c r="D208" s="26"/>
@@ -15542,7 +15537,7 @@
       <c r="AP208" s="7"/>
       <c r="AQ208" s="7"/>
     </row>
-    <row r="209" spans="2:43" ht="16.5" customHeight="1">
+    <row r="209" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B209" s="7"/>
       <c r="C209" s="26"/>
       <c r="D209" s="26"/>
@@ -15586,7 +15581,7 @@
       <c r="AP209" s="7"/>
       <c r="AQ209" s="7"/>
     </row>
-    <row r="210" spans="2:43" ht="16.5" customHeight="1">
+    <row r="210" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B210" s="7"/>
       <c r="C210" s="26"/>
       <c r="D210" s="26"/>
@@ -15630,7 +15625,7 @@
       <c r="AP210" s="7"/>
       <c r="AQ210" s="7"/>
     </row>
-    <row r="211" spans="2:43" ht="16.5" customHeight="1">
+    <row r="211" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B211" s="1"/>
       <c r="C211" s="27"/>
       <c r="D211" s="27"/>
@@ -15674,7 +15669,7 @@
       <c r="AP211" s="2"/>
       <c r="AQ211" s="2"/>
     </row>
-    <row r="212" spans="2:43" ht="16.5" customHeight="1">
+    <row r="212" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B212" s="1"/>
       <c r="C212" s="27"/>
       <c r="D212" s="27"/>
@@ -15718,7 +15713,7 @@
       <c r="AP212" s="2"/>
       <c r="AQ212" s="2"/>
     </row>
-    <row r="213" spans="2:43" ht="16.5" customHeight="1">
+    <row r="213" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B213" s="1"/>
       <c r="C213" s="27"/>
       <c r="D213" s="27"/>
@@ -15762,7 +15757,7 @@
       <c r="AP213" s="2"/>
       <c r="AQ213" s="2"/>
     </row>
-    <row r="214" spans="2:43" ht="16.5" customHeight="1">
+    <row r="214" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B214" s="1"/>
       <c r="C214" s="27"/>
       <c r="D214" s="27"/>
@@ -15806,7 +15801,7 @@
       <c r="AP214" s="2"/>
       <c r="AQ214" s="2"/>
     </row>
-    <row r="215" spans="2:43" ht="16.5" customHeight="1">
+    <row r="215" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B215" s="1"/>
       <c r="C215" s="27"/>
       <c r="D215" s="27"/>
@@ -15850,7 +15845,7 @@
       <c r="AP215" s="2"/>
       <c r="AQ215" s="2"/>
     </row>
-    <row r="216" spans="2:43" ht="16.5" customHeight="1">
+    <row r="216" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B216" s="1"/>
       <c r="C216" s="27"/>
       <c r="D216" s="27"/>
@@ -15894,7 +15889,7 @@
       <c r="AP216" s="2"/>
       <c r="AQ216" s="2"/>
     </row>
-    <row r="217" spans="2:43" ht="15" customHeight="1">
+    <row r="217" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B217" s="1"/>
       <c r="C217" s="27"/>
       <c r="D217" s="27"/>
@@ -15938,7 +15933,7 @@
       <c r="AP217" s="2"/>
       <c r="AQ217" s="2"/>
     </row>
-    <row r="218" spans="2:43" ht="15" customHeight="1">
+    <row r="218" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B218" s="1"/>
       <c r="C218" s="27"/>
       <c r="D218" s="27"/>
@@ -15982,7 +15977,7 @@
       <c r="AP218" s="2"/>
       <c r="AQ218" s="2"/>
     </row>
-    <row r="219" spans="2:43" ht="15" customHeight="1">
+    <row r="219" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B219" s="1"/>
       <c r="C219" s="27"/>
       <c r="D219" s="27"/>
@@ -16026,7 +16021,7 @@
       <c r="AP219" s="2"/>
       <c r="AQ219" s="2"/>
     </row>
-    <row r="220" spans="2:43" ht="15" customHeight="1">
+    <row r="220" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B220" s="1"/>
       <c r="C220" s="27"/>
       <c r="D220" s="27"/>
@@ -16070,7 +16065,7 @@
       <c r="AP220" s="2"/>
       <c r="AQ220" s="2"/>
     </row>
-    <row r="221" spans="2:43" ht="15" customHeight="1">
+    <row r="221" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B221" s="1"/>
       <c r="C221" s="27"/>
       <c r="D221" s="27"/>
@@ -16114,7 +16109,7 @@
       <c r="AP221" s="2"/>
       <c r="AQ221" s="2"/>
     </row>
-    <row r="222" spans="2:43" ht="15" customHeight="1">
+    <row r="222" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B222" s="1"/>
       <c r="C222" s="27"/>
       <c r="D222" s="27"/>
@@ -16158,7 +16153,7 @@
       <c r="AP222" s="2"/>
       <c r="AQ222" s="2"/>
     </row>
-    <row r="223" spans="2:43" ht="15" customHeight="1">
+    <row r="223" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B223" s="1"/>
       <c r="C223" s="27"/>
       <c r="D223" s="27"/>
@@ -16202,7 +16197,7 @@
       <c r="AP223" s="2"/>
       <c r="AQ223" s="2"/>
     </row>
-    <row r="224" spans="2:43" ht="15" customHeight="1">
+    <row r="224" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B224" s="1"/>
       <c r="C224" s="27"/>
       <c r="D224" s="27"/>
@@ -16246,7 +16241,7 @@
       <c r="AP224" s="2"/>
       <c r="AQ224" s="2"/>
     </row>
-    <row r="225" spans="2:43" ht="15" customHeight="1">
+    <row r="225" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B225" s="1"/>
       <c r="C225" s="27"/>
       <c r="D225" s="27"/>
@@ -16290,7 +16285,7 @@
       <c r="AP225" s="2"/>
       <c r="AQ225" s="2"/>
     </row>
-    <row r="226" spans="2:43" ht="15" customHeight="1">
+    <row r="226" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B226" s="1"/>
       <c r="C226" s="27"/>
       <c r="D226" s="27"/>
@@ -16334,7 +16329,7 @@
       <c r="AP226" s="2"/>
       <c r="AQ226" s="2"/>
     </row>
-    <row r="227" spans="2:43" ht="15" customHeight="1">
+    <row r="227" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B227" s="1"/>
       <c r="C227" s="27"/>
       <c r="D227" s="27"/>
@@ -16378,7 +16373,7 @@
       <c r="AP227" s="2"/>
       <c r="AQ227" s="2"/>
     </row>
-    <row r="228" spans="2:43" ht="15" customHeight="1">
+    <row r="228" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B228" s="1"/>
       <c r="C228" s="27"/>
       <c r="D228" s="27"/>
@@ -16422,7 +16417,7 @@
       <c r="AP228" s="2"/>
       <c r="AQ228" s="2"/>
     </row>
-    <row r="229" spans="2:43" ht="15" customHeight="1">
+    <row r="229" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B229" s="1"/>
       <c r="C229" s="27"/>
       <c r="D229" s="27"/>
@@ -16466,7 +16461,7 @@
       <c r="AP229" s="2"/>
       <c r="AQ229" s="2"/>
     </row>
-    <row r="230" spans="2:43" ht="15" customHeight="1">
+    <row r="230" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B230" s="1"/>
       <c r="C230" s="27"/>
       <c r="D230" s="27"/>
@@ -16510,7 +16505,7 @@
       <c r="AP230" s="2"/>
       <c r="AQ230" s="2"/>
     </row>
-    <row r="231" spans="2:43" ht="15" customHeight="1">
+    <row r="231" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B231" s="1"/>
       <c r="C231" s="27"/>
       <c r="D231" s="27"/>
@@ -16554,7 +16549,7 @@
       <c r="AP231" s="2"/>
       <c r="AQ231" s="2"/>
     </row>
-    <row r="232" spans="2:43" ht="15" customHeight="1">
+    <row r="232" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B232" s="1"/>
       <c r="C232" s="27"/>
       <c r="D232" s="27"/>
@@ -16598,7 +16593,7 @@
       <c r="AP232" s="2"/>
       <c r="AQ232" s="2"/>
     </row>
-    <row r="233" spans="2:43" ht="15" customHeight="1">
+    <row r="233" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B233" s="1"/>
       <c r="C233" s="27"/>
       <c r="D233" s="27"/>
@@ -16642,7 +16637,7 @@
       <c r="AP233" s="2"/>
       <c r="AQ233" s="2"/>
     </row>
-    <row r="234" spans="2:43" ht="15" customHeight="1">
+    <row r="234" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B234" s="1"/>
       <c r="C234" s="27"/>
       <c r="D234" s="27"/>
@@ -16686,7 +16681,7 @@
       <c r="AP234" s="2"/>
       <c r="AQ234" s="2"/>
     </row>
-    <row r="235" spans="2:43" ht="15" customHeight="1">
+    <row r="235" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B235" s="1"/>
       <c r="C235" s="27"/>
       <c r="D235" s="27"/>
@@ -16730,7 +16725,7 @@
       <c r="AP235" s="2"/>
       <c r="AQ235" s="2"/>
     </row>
-    <row r="236" spans="2:43" ht="15" customHeight="1">
+    <row r="236" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B236" s="1"/>
       <c r="C236" s="27"/>
       <c r="D236" s="27"/>
@@ -16774,7 +16769,7 @@
       <c r="AP236" s="2"/>
       <c r="AQ236" s="2"/>
     </row>
-    <row r="237" spans="2:43" ht="15" customHeight="1">
+    <row r="237" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B237" s="1"/>
       <c r="C237" s="27"/>
       <c r="D237" s="27"/>
@@ -16818,7 +16813,7 @@
       <c r="AP237" s="2"/>
       <c r="AQ237" s="2"/>
     </row>
-    <row r="238" spans="2:43" ht="15" customHeight="1">
+    <row r="238" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B238" s="1"/>
       <c r="C238" s="27"/>
       <c r="D238" s="27"/>
@@ -16862,7 +16857,7 @@
       <c r="AP238" s="2"/>
       <c r="AQ238" s="2"/>
     </row>
-    <row r="239" spans="2:43" ht="15" customHeight="1">
+    <row r="239" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B239" s="1"/>
       <c r="C239" s="27"/>
       <c r="D239" s="27"/>
@@ -16906,7 +16901,7 @@
       <c r="AP239" s="2"/>
       <c r="AQ239" s="2"/>
     </row>
-    <row r="240" spans="2:43" ht="15" customHeight="1">
+    <row r="240" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B240" s="1"/>
       <c r="C240" s="27"/>
       <c r="D240" s="27"/>
@@ -16950,7 +16945,7 @@
       <c r="AP240" s="2"/>
       <c r="AQ240" s="2"/>
     </row>
-    <row r="241" spans="2:43" ht="15" customHeight="1">
+    <row r="241" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B241" s="1"/>
       <c r="C241" s="27"/>
       <c r="D241" s="27"/>
@@ -16994,7 +16989,7 @@
       <c r="AP241" s="6"/>
       <c r="AQ241" s="6"/>
     </row>
-    <row r="242" spans="2:43" ht="15" customHeight="1">
+    <row r="242" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B242" s="1"/>
       <c r="C242" s="27"/>
       <c r="D242" s="27"/>
@@ -17038,7 +17033,7 @@
       <c r="AP242" s="6"/>
       <c r="AQ242" s="6"/>
     </row>
-    <row r="243" spans="2:43" ht="15" customHeight="1">
+    <row r="243" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B243" s="1"/>
       <c r="C243" s="27"/>
       <c r="D243" s="27"/>
@@ -17082,7 +17077,7 @@
       <c r="AP243" s="6"/>
       <c r="AQ243" s="6"/>
     </row>
-    <row r="244" spans="2:43" ht="15" customHeight="1">
+    <row r="244" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B244" s="1"/>
       <c r="C244" s="27"/>
       <c r="D244" s="27"/>
@@ -17126,7 +17121,7 @@
       <c r="AP244" s="6"/>
       <c r="AQ244" s="6"/>
     </row>
-    <row r="245" spans="2:43" ht="15" customHeight="1">
+    <row r="245" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B245" s="1"/>
       <c r="C245" s="27"/>
       <c r="D245" s="27"/>
@@ -17170,7 +17165,7 @@
       <c r="AP245" s="6"/>
       <c r="AQ245" s="6"/>
     </row>
-    <row r="246" spans="2:43" ht="15" customHeight="1">
+    <row r="246" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B246" s="1"/>
       <c r="C246" s="27"/>
       <c r="D246" s="27"/>
@@ -17214,7 +17209,7 @@
       <c r="AP246" s="6"/>
       <c r="AQ246" s="6"/>
     </row>
-    <row r="247" spans="2:43" ht="15" customHeight="1">
+    <row r="247" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B247" s="1"/>
       <c r="C247" s="27"/>
       <c r="D247" s="27"/>
@@ -17258,7 +17253,7 @@
       <c r="AP247" s="6"/>
       <c r="AQ247" s="6"/>
     </row>
-    <row r="248" spans="2:43" ht="15" customHeight="1">
+    <row r="248" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B248" s="1"/>
       <c r="C248" s="27"/>
       <c r="D248" s="27"/>
@@ -17302,7 +17297,7 @@
       <c r="AP248" s="2"/>
       <c r="AQ248" s="2"/>
     </row>
-    <row r="249" spans="2:43" ht="15" customHeight="1">
+    <row r="249" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B249" s="1"/>
       <c r="C249" s="27"/>
       <c r="D249" s="27"/>
@@ -17346,7 +17341,7 @@
       <c r="AP249" s="2"/>
       <c r="AQ249" s="2"/>
     </row>
-    <row r="250" spans="2:43" ht="15" customHeight="1">
+    <row r="250" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B250" s="1"/>
       <c r="C250" s="27"/>
       <c r="D250" s="27"/>
@@ -17390,7 +17385,7 @@
       <c r="AP250" s="2"/>
       <c r="AQ250" s="2"/>
     </row>
-    <row r="251" spans="2:43" ht="15" customHeight="1">
+    <row r="251" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B251" s="1"/>
       <c r="C251" s="27"/>
       <c r="D251" s="27"/>
@@ -17434,7 +17429,7 @@
       <c r="AP251" s="2"/>
       <c r="AQ251" s="2"/>
     </row>
-    <row r="252" spans="2:43" ht="15" customHeight="1">
+    <row r="252" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B252" s="1"/>
       <c r="C252" s="27"/>
       <c r="D252" s="27"/>
@@ -17478,7 +17473,7 @@
       <c r="AP252" s="2"/>
       <c r="AQ252" s="2"/>
     </row>
-    <row r="253" spans="2:43" ht="15" customHeight="1">
+    <row r="253" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B253" s="1"/>
       <c r="C253" s="27"/>
       <c r="D253" s="27"/>
@@ -17522,7 +17517,7 @@
       <c r="AP253" s="2"/>
       <c r="AQ253" s="2"/>
     </row>
-    <row r="254" spans="2:43" ht="15" customHeight="1">
+    <row r="254" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B254" s="1"/>
       <c r="C254" s="27"/>
       <c r="D254" s="27"/>
@@ -17566,7 +17561,7 @@
       <c r="AP254" s="2"/>
       <c r="AQ254" s="2"/>
     </row>
-    <row r="255" spans="2:43" ht="15" customHeight="1">
+    <row r="255" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B255" s="1"/>
       <c r="C255" s="27"/>
       <c r="D255" s="27"/>
@@ -17610,7 +17605,7 @@
       <c r="AP255" s="2"/>
       <c r="AQ255" s="2"/>
     </row>
-    <row r="256" spans="2:43" ht="15" customHeight="1">
+    <row r="256" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B256" s="1"/>
       <c r="C256" s="27"/>
       <c r="D256" s="27"/>
@@ -17654,7 +17649,7 @@
       <c r="AP256" s="2"/>
       <c r="AQ256" s="2"/>
     </row>
-    <row r="257" spans="2:43" ht="15" customHeight="1">
+    <row r="257" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B257" s="1"/>
       <c r="C257" s="27"/>
       <c r="D257" s="27"/>
@@ -17698,7 +17693,7 @@
       <c r="AP257" s="2"/>
       <c r="AQ257" s="2"/>
     </row>
-    <row r="258" spans="2:43" ht="15" customHeight="1">
+    <row r="258" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B258" s="1"/>
       <c r="C258" s="27"/>
       <c r="D258" s="27"/>
@@ -17742,7 +17737,7 @@
       <c r="AP258" s="6"/>
       <c r="AQ258" s="6"/>
     </row>
-    <row r="259" spans="2:43" ht="15" customHeight="1">
+    <row r="259" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B259" s="1"/>
       <c r="C259" s="27"/>
       <c r="D259" s="27"/>
@@ -17786,7 +17781,7 @@
       <c r="AP259" s="2"/>
       <c r="AQ259" s="2"/>
     </row>
-    <row r="260" spans="2:43" ht="15" customHeight="1">
+    <row r="260" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B260" s="1"/>
       <c r="C260" s="27"/>
       <c r="D260" s="27"/>
@@ -17830,7 +17825,7 @@
       <c r="AP260" s="2"/>
       <c r="AQ260" s="2"/>
     </row>
-    <row r="261" spans="2:43" ht="15" customHeight="1">
+    <row r="261" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B261" s="1"/>
       <c r="C261" s="27"/>
       <c r="D261" s="27"/>
@@ -17874,7 +17869,7 @@
       <c r="AP261" s="2"/>
       <c r="AQ261" s="2"/>
     </row>
-    <row r="262" spans="2:43" ht="15" customHeight="1">
+    <row r="262" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B262" s="1"/>
       <c r="C262" s="27"/>
       <c r="D262" s="27"/>
@@ -17918,7 +17913,7 @@
       <c r="AP262" s="2"/>
       <c r="AQ262" s="2"/>
     </row>
-    <row r="263" spans="2:43" ht="15" customHeight="1">
+    <row r="263" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B263" s="1"/>
       <c r="C263" s="27"/>
       <c r="D263" s="27"/>
@@ -17962,7 +17957,7 @@
       <c r="AP263" s="2"/>
       <c r="AQ263" s="2"/>
     </row>
-    <row r="264" spans="2:43" ht="15" customHeight="1">
+    <row r="264" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B264" s="1"/>
       <c r="C264" s="27"/>
       <c r="D264" s="27"/>
@@ -18006,7 +18001,7 @@
       <c r="AP264" s="2"/>
       <c r="AQ264" s="2"/>
     </row>
-    <row r="265" spans="2:43" ht="15" customHeight="1">
+    <row r="265" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B265" s="1"/>
       <c r="C265" s="27"/>
       <c r="D265" s="27"/>
@@ -18050,7 +18045,7 @@
       <c r="AP265" s="2"/>
       <c r="AQ265" s="2"/>
     </row>
-    <row r="266" spans="2:43" ht="15" customHeight="1">
+    <row r="266" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B266" s="1"/>
       <c r="C266" s="27"/>
       <c r="D266" s="27"/>
@@ -18094,7 +18089,7 @@
       <c r="AP266" s="2"/>
       <c r="AQ266" s="2"/>
     </row>
-    <row r="267" spans="2:43" ht="15" customHeight="1">
+    <row r="267" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B267" s="1"/>
       <c r="C267" s="27"/>
       <c r="D267" s="27"/>
@@ -18138,7 +18133,7 @@
       <c r="AP267" s="2"/>
       <c r="AQ267" s="2"/>
     </row>
-    <row r="268" spans="2:43" ht="15" customHeight="1">
+    <row r="268" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B268" s="1"/>
       <c r="C268" s="27"/>
       <c r="D268" s="27"/>
@@ -18182,7 +18177,7 @@
       <c r="AP268" s="6"/>
       <c r="AQ268" s="6"/>
     </row>
-    <row r="269" spans="2:43" ht="15" customHeight="1">
+    <row r="269" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B269" s="1"/>
       <c r="C269" s="27"/>
       <c r="D269" s="27"/>
@@ -18226,7 +18221,7 @@
       <c r="AP269" s="2"/>
       <c r="AQ269" s="2"/>
     </row>
-    <row r="270" spans="2:43" ht="15" customHeight="1">
+    <row r="270" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B270" s="1"/>
       <c r="C270" s="27"/>
       <c r="D270" s="27"/>
@@ -18270,7 +18265,7 @@
       <c r="AP270" s="6"/>
       <c r="AQ270" s="6"/>
     </row>
-    <row r="271" spans="2:43" ht="15" customHeight="1">
+    <row r="271" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B271" s="1"/>
       <c r="C271" s="27"/>
       <c r="D271" s="27"/>
@@ -18314,7 +18309,7 @@
       <c r="AP271" s="6"/>
       <c r="AQ271" s="6"/>
     </row>
-    <row r="272" spans="2:43" ht="15" customHeight="1">
+    <row r="272" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B272" s="1"/>
       <c r="C272" s="27"/>
       <c r="D272" s="27"/>
@@ -18358,7 +18353,7 @@
       <c r="AP272" s="6"/>
       <c r="AQ272" s="6"/>
     </row>
-    <row r="273" spans="2:43" ht="15" customHeight="1">
+    <row r="273" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B273" s="1"/>
       <c r="C273" s="27"/>
       <c r="D273" s="27"/>
@@ -18402,7 +18397,7 @@
       <c r="AP273" s="6"/>
       <c r="AQ273" s="6"/>
     </row>
-    <row r="274" spans="2:43" ht="15" customHeight="1">
+    <row r="274" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B274" s="1"/>
       <c r="C274" s="27"/>
       <c r="D274" s="27"/>
@@ -18446,7 +18441,7 @@
       <c r="AP274" s="6"/>
       <c r="AQ274" s="6"/>
     </row>
-    <row r="275" spans="2:43" ht="15" customHeight="1">
+    <row r="275" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B275" s="1"/>
       <c r="C275" s="27"/>
       <c r="D275" s="27"/>
@@ -18490,7 +18485,7 @@
       <c r="AP275" s="6"/>
       <c r="AQ275" s="6"/>
     </row>
-    <row r="276" spans="2:43" ht="15" customHeight="1">
+    <row r="276" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B276" s="1"/>
       <c r="C276" s="27"/>
       <c r="D276" s="27"/>
@@ -18534,7 +18529,7 @@
       <c r="AP276" s="6"/>
       <c r="AQ276" s="6"/>
     </row>
-    <row r="277" spans="2:43" ht="15" customHeight="1">
+    <row r="277" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B277" s="1"/>
       <c r="C277" s="27"/>
       <c r="D277" s="27"/>
@@ -18578,7 +18573,7 @@
       <c r="AP277" s="6"/>
       <c r="AQ277" s="6"/>
     </row>
-    <row r="278" spans="2:43" ht="15" customHeight="1">
+    <row r="278" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B278" s="1"/>
       <c r="C278" s="27"/>
       <c r="D278" s="27"/>
@@ -18622,7 +18617,7 @@
       <c r="AP278" s="6"/>
       <c r="AQ278" s="6"/>
     </row>
-    <row r="279" spans="2:43" ht="15" customHeight="1">
+    <row r="279" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B279" s="1"/>
       <c r="C279" s="27"/>
       <c r="D279" s="27"/>
@@ -18666,7 +18661,7 @@
       <c r="AP279" s="6"/>
       <c r="AQ279" s="6"/>
     </row>
-    <row r="280" spans="2:43" ht="15" customHeight="1">
+    <row r="280" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B280" s="1"/>
       <c r="C280" s="27"/>
       <c r="D280" s="27"/>
@@ -18710,7 +18705,7 @@
       <c r="AP280" s="6"/>
       <c r="AQ280" s="6"/>
     </row>
-    <row r="281" spans="2:43" ht="15" customHeight="1">
+    <row r="281" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B281" s="1"/>
       <c r="C281" s="27"/>
       <c r="D281" s="27"/>
@@ -18754,7 +18749,7 @@
       <c r="AP281" s="6"/>
       <c r="AQ281" s="6"/>
     </row>
-    <row r="282" spans="2:43" ht="15" customHeight="1">
+    <row r="282" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B282" s="1"/>
       <c r="C282" s="27"/>
       <c r="D282" s="27"/>
@@ -18798,7 +18793,7 @@
       <c r="AP282" s="6"/>
       <c r="AQ282" s="6"/>
     </row>
-    <row r="283" spans="2:43" ht="15" customHeight="1">
+    <row r="283" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B283" s="1"/>
       <c r="C283" s="27"/>
       <c r="D283" s="27"/>
@@ -18842,7 +18837,7 @@
       <c r="AP283" s="6"/>
       <c r="AQ283" s="6"/>
     </row>
-    <row r="284" spans="2:43" ht="15" customHeight="1">
+    <row r="284" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B284" s="1"/>
       <c r="C284" s="27"/>
       <c r="D284" s="27"/>
@@ -18886,7 +18881,7 @@
       <c r="AP284" s="6"/>
       <c r="AQ284" s="6"/>
     </row>
-    <row r="285" spans="2:43" ht="15" customHeight="1">
+    <row r="285" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B285" s="1"/>
       <c r="C285" s="27"/>
       <c r="D285" s="27"/>
@@ -18930,7 +18925,7 @@
       <c r="AP285" s="6"/>
       <c r="AQ285" s="6"/>
     </row>
-    <row r="286" spans="2:43" ht="15" customHeight="1">
+    <row r="286" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B286" s="1"/>
       <c r="C286" s="27"/>
       <c r="D286" s="27"/>
@@ -18974,7 +18969,7 @@
       <c r="AP286" s="6"/>
       <c r="AQ286" s="6"/>
     </row>
-    <row r="287" spans="2:43" ht="15" customHeight="1">
+    <row r="287" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B287" s="1"/>
       <c r="C287" s="27"/>
       <c r="D287" s="27"/>
@@ -19018,7 +19013,7 @@
       <c r="AP287" s="6"/>
       <c r="AQ287" s="6"/>
     </row>
-    <row r="288" spans="2:43" ht="15" customHeight="1">
+    <row r="288" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B288" s="1"/>
       <c r="C288" s="27"/>
       <c r="D288" s="27"/>
@@ -19062,7 +19057,7 @@
       <c r="AP288" s="6"/>
       <c r="AQ288" s="6"/>
     </row>
-    <row r="289" spans="2:43" ht="15" customHeight="1">
+    <row r="289" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B289" s="1"/>
       <c r="C289" s="27"/>
       <c r="D289" s="27"/>
@@ -19106,7 +19101,7 @@
       <c r="AP289" s="6"/>
       <c r="AQ289" s="6"/>
     </row>
-    <row r="290" spans="2:43" ht="15" customHeight="1">
+    <row r="290" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B290" s="1"/>
       <c r="C290" s="27"/>
       <c r="D290" s="27"/>
@@ -19150,7 +19145,7 @@
       <c r="AP290" s="6"/>
       <c r="AQ290" s="6"/>
     </row>
-    <row r="291" spans="2:43" ht="15" customHeight="1">
+    <row r="291" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B291" s="1"/>
       <c r="C291" s="27"/>
       <c r="D291" s="27"/>
@@ -19194,7 +19189,7 @@
       <c r="AP291" s="6"/>
       <c r="AQ291" s="6"/>
     </row>
-    <row r="292" spans="2:43" ht="15" customHeight="1">
+    <row r="292" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B292" s="1"/>
       <c r="C292" s="27"/>
       <c r="D292" s="27"/>
@@ -19238,7 +19233,7 @@
       <c r="AP292" s="6"/>
       <c r="AQ292" s="6"/>
     </row>
-    <row r="293" spans="2:43" ht="15" customHeight="1">
+    <row r="293" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B293" s="1"/>
       <c r="C293" s="27"/>
       <c r="D293" s="27"/>
@@ -19282,7 +19277,7 @@
       <c r="AP293" s="6"/>
       <c r="AQ293" s="6"/>
     </row>
-    <row r="294" spans="2:43" ht="15" customHeight="1">
+    <row r="294" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B294" s="1"/>
       <c r="C294" s="27"/>
       <c r="D294" s="27"/>
@@ -19326,7 +19321,7 @@
       <c r="AP294" s="6"/>
       <c r="AQ294" s="6"/>
     </row>
-    <row r="295" spans="2:43" ht="15" customHeight="1">
+    <row r="295" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B295" s="1"/>
       <c r="C295" s="27"/>
       <c r="D295" s="27"/>
@@ -19370,7 +19365,7 @@
       <c r="AP295" s="2"/>
       <c r="AQ295" s="2"/>
     </row>
-    <row r="296" spans="2:43" ht="15" customHeight="1">
+    <row r="296" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B296" s="1"/>
       <c r="C296" s="27"/>
       <c r="D296" s="27"/>
@@ -19414,7 +19409,7 @@
       <c r="AP296" s="6"/>
       <c r="AQ296" s="6"/>
     </row>
-    <row r="297" spans="2:43" ht="15" customHeight="1">
+    <row r="297" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B297" s="1"/>
       <c r="C297" s="27"/>
       <c r="D297" s="27"/>
@@ -19458,7 +19453,7 @@
       <c r="AP297" s="6"/>
       <c r="AQ297" s="6"/>
     </row>
-    <row r="298" spans="2:43" ht="15" customHeight="1">
+    <row r="298" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B298" s="1"/>
       <c r="C298" s="27"/>
       <c r="D298" s="27"/>
@@ -19502,7 +19497,7 @@
       <c r="AP298" s="6"/>
       <c r="AQ298" s="6"/>
     </row>
-    <row r="299" spans="2:43" ht="15" customHeight="1">
+    <row r="299" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B299" s="1"/>
       <c r="C299" s="27"/>
       <c r="D299" s="27"/>
@@ -19546,7 +19541,7 @@
       <c r="AP299" s="2"/>
       <c r="AQ299" s="2"/>
     </row>
-    <row r="300" spans="2:43" ht="15" customHeight="1">
+    <row r="300" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B300" s="1"/>
       <c r="C300" s="27"/>
       <c r="D300" s="27"/>
@@ -19590,7 +19585,7 @@
       <c r="AP300" s="2"/>
       <c r="AQ300" s="2"/>
     </row>
-    <row r="301" spans="2:43" ht="15" customHeight="1">
+    <row r="301" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B301" s="4"/>
       <c r="C301" s="28"/>
       <c r="D301" s="28"/>
@@ -19606,14 +19601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="49" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
@@ -19645,7 +19640,7 @@
     <col min="40" max="42" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="44" customFormat="1" ht="78" customHeight="1">
+    <row r="1" spans="1:42" s="44" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>67</v>
       </c>
@@ -19773,10 +19768,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="44" customFormat="1" ht="63.75" customHeight="1">
+    <row r="2" spans="1:42" s="44" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="51"/>
@@ -19819,126 +19814,126 @@
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
-    <row r="3" spans="1:42" s="44" customFormat="1" ht="81.75" customHeight="1">
+    <row r="3" spans="1:42" s="44" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="25" t="s">
+      <c r="M3" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="P3" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="S3" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y3" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB3" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD3" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE3" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="S3" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z3" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA3" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB3" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC3" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD3" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AG3" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="AH3" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="AH3" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="AI3" s="47"/>
       <c r="AJ3" s="47"/>
       <c r="AK3" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL3" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AM3" s="41"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
       <c r="AP3" s="47"/>
     </row>
-    <row r="4" spans="1:42" ht="15.6" customHeight="1">
+    <row r="4" spans="1:42" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="17"/>
@@ -19981,7 +19976,7 @@
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
     </row>
-    <row r="5" spans="1:42" ht="15.6" customHeight="1">
+    <row r="5" spans="1:42" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60"/>
       <c r="B5" s="7"/>
       <c r="C5" s="26"/>
@@ -20025,7 +20020,7 @@
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
     </row>
-    <row r="6" spans="1:42" ht="15.6" customHeight="1">
+    <row r="6" spans="1:42" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60"/>
       <c r="B6" s="7"/>
       <c r="C6" s="26"/>
@@ -20069,7 +20064,7 @@
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
     </row>
-    <row r="7" spans="1:42" ht="15.6" customHeight="1">
+    <row r="7" spans="1:42" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60"/>
       <c r="B7" s="7"/>
       <c r="C7" s="26"/>
@@ -20113,7 +20108,7 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
     </row>
-    <row r="8" spans="1:42" ht="15.6" customHeight="1">
+    <row r="8" spans="1:42" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="60"/>
       <c r="B8" s="7"/>
       <c r="C8" s="26"/>
@@ -20157,7 +20152,7 @@
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
     </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1">
+    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60"/>
       <c r="B9" s="7"/>
       <c r="C9" s="26"/>
@@ -20201,7 +20196,7 @@
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
     </row>
-    <row r="10" spans="1:42" ht="15" customHeight="1">
+    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60"/>
       <c r="B10" s="7"/>
       <c r="C10" s="26"/>
@@ -20245,7 +20240,7 @@
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
     </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1">
+    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60"/>
       <c r="B11" s="7"/>
       <c r="C11" s="26"/>
@@ -20289,7 +20284,7 @@
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
     </row>
-    <row r="12" spans="1:42" ht="15" customHeight="1">
+    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
       <c r="B12" s="7"/>
       <c r="C12" s="26"/>
@@ -20333,7 +20328,7 @@
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
     </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1">
+    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="26"/>
       <c r="D13" s="7"/>
@@ -20376,7 +20371,7 @@
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
     </row>
-    <row r="14" spans="1:42" ht="16.5" customHeight="1">
+    <row r="14" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="26"/>
       <c r="D14" s="7"/>
@@ -20419,7 +20414,7 @@
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
     </row>
-    <row r="15" spans="1:42" ht="16.5" customHeight="1">
+    <row r="15" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="26"/>
       <c r="D15" s="7"/>
@@ -20462,7 +20457,7 @@
       <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
     </row>
-    <row r="16" spans="1:42" ht="16.5" customHeight="1">
+    <row r="16" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="26"/>
       <c r="D16" s="7"/>
@@ -20505,7 +20500,7 @@
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
     </row>
-    <row r="17" spans="2:42" ht="16.5" customHeight="1">
+    <row r="17" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="26"/>
       <c r="D17" s="7"/>
@@ -20548,7 +20543,7 @@
       <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
     </row>
-    <row r="18" spans="2:42" ht="16.5" customHeight="1">
+    <row r="18" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="26"/>
       <c r="D18" s="7"/>
@@ -20591,7 +20586,7 @@
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
     </row>
-    <row r="19" spans="2:42" ht="16.5" customHeight="1">
+    <row r="19" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="27"/>
       <c r="D19" s="1"/>
@@ -20634,7 +20629,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="2:42" ht="16.5" customHeight="1">
+    <row r="20" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="27"/>
       <c r="D20" s="1"/>
@@ -20677,7 +20672,7 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="2:42" ht="16.5" customHeight="1">
+    <row r="21" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
       <c r="C21" s="27"/>
       <c r="D21" s="1"/>
@@ -20720,7 +20715,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="2:42" ht="16.5" customHeight="1">
+    <row r="22" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
       <c r="C22" s="27"/>
       <c r="D22" s="1"/>
@@ -20763,7 +20758,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="2:42" ht="16.5" customHeight="1">
+    <row r="23" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="27"/>
       <c r="D23" s="1"/>
@@ -20806,7 +20801,7 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="2:42" ht="16.5" customHeight="1">
+    <row r="24" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="27"/>
       <c r="D24" s="1"/>
@@ -20849,7 +20844,7 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="2:42" ht="15" customHeight="1">
+    <row r="25" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
       <c r="C25" s="27"/>
       <c r="D25" s="1"/>
@@ -20892,7 +20887,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="2:42" ht="15" customHeight="1">
+    <row r="26" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="27"/>
       <c r="D26" s="1"/>
@@ -20935,7 +20930,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="2:42" ht="15" customHeight="1">
+    <row r="27" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="27"/>
       <c r="D27" s="1"/>
@@ -20978,7 +20973,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="2:42" ht="15" customHeight="1">
+    <row r="28" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1"/>
       <c r="C28" s="27"/>
       <c r="D28" s="1"/>
@@ -21021,7 +21016,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="2:42" ht="15" customHeight="1">
+    <row r="29" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
       <c r="C29" s="27"/>
       <c r="D29" s="1"/>
@@ -21064,7 +21059,7 @@
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="2:42" ht="15" customHeight="1">
+    <row r="30" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1"/>
       <c r="C30" s="27"/>
       <c r="D30" s="1"/>
@@ -21107,7 +21102,7 @@
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="2:42" ht="15" customHeight="1">
+    <row r="31" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1"/>
       <c r="C31" s="27"/>
       <c r="D31" s="1"/>
@@ -21150,7 +21145,7 @@
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="2:42" ht="15" customHeight="1">
+    <row r="32" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
       <c r="C32" s="27"/>
       <c r="D32" s="1"/>
@@ -21193,7 +21188,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="2:42" ht="15" customHeight="1">
+    <row r="33" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
       <c r="C33" s="27"/>
       <c r="D33" s="1"/>
@@ -21236,7 +21231,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="2:42" ht="15" customHeight="1">
+    <row r="34" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="1"/>
       <c r="C34" s="27"/>
       <c r="D34" s="1"/>
@@ -21279,7 +21274,7 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="2:42" ht="15" customHeight="1">
+    <row r="35" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="1"/>
       <c r="C35" s="27"/>
       <c r="D35" s="1"/>
@@ -21322,7 +21317,7 @@
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
     </row>
-    <row r="36" spans="2:42" ht="15" customHeight="1">
+    <row r="36" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="1"/>
       <c r="C36" s="27"/>
       <c r="D36" s="1"/>
@@ -21365,7 +21360,7 @@
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
     </row>
-    <row r="37" spans="2:42" ht="15" customHeight="1">
+    <row r="37" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1"/>
       <c r="C37" s="27"/>
       <c r="D37" s="1"/>
@@ -21408,7 +21403,7 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
     </row>
-    <row r="38" spans="2:42" ht="15" customHeight="1">
+    <row r="38" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="1"/>
       <c r="C38" s="27"/>
       <c r="D38" s="1"/>
@@ -21451,7 +21446,7 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
     </row>
-    <row r="39" spans="2:42" ht="15" customHeight="1">
+    <row r="39" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1"/>
       <c r="C39" s="27"/>
       <c r="D39" s="1"/>
@@ -21494,7 +21489,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="2:42" ht="15" customHeight="1">
+    <row r="40" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="1"/>
       <c r="C40" s="27"/>
       <c r="D40" s="1"/>
@@ -21537,7 +21532,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="2:42" ht="15" customHeight="1">
+    <row r="41" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="1"/>
       <c r="C41" s="27"/>
       <c r="D41" s="1"/>
@@ -21580,7 +21575,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="2:42" ht="15" customHeight="1">
+    <row r="42" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="1"/>
       <c r="C42" s="27"/>
       <c r="D42" s="1"/>
@@ -21623,7 +21618,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="2:42" ht="15" customHeight="1">
+    <row r="43" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="1"/>
       <c r="C43" s="27"/>
       <c r="D43" s="1"/>
@@ -21666,7 +21661,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="2:42" ht="15" customHeight="1">
+    <row r="44" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1"/>
       <c r="C44" s="27"/>
       <c r="D44" s="1"/>
@@ -21709,7 +21704,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="2:42" ht="15" customHeight="1">
+    <row r="45" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="1"/>
       <c r="C45" s="27"/>
       <c r="D45" s="1"/>
@@ -21752,7 +21747,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="2:42" ht="15" customHeight="1">
+    <row r="46" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="1"/>
       <c r="C46" s="27"/>
       <c r="D46" s="1"/>
@@ -21795,7 +21790,7 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
     </row>
-    <row r="47" spans="2:42" ht="15" customHeight="1">
+    <row r="47" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1"/>
       <c r="C47" s="27"/>
       <c r="D47" s="1"/>
@@ -21838,7 +21833,7 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
     </row>
-    <row r="48" spans="2:42" ht="15" customHeight="1">
+    <row r="48" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1"/>
       <c r="C48" s="27"/>
       <c r="D48" s="1"/>
@@ -21881,7 +21876,7 @@
       <c r="AO48" s="2"/>
       <c r="AP48" s="2"/>
     </row>
-    <row r="49" spans="2:42" ht="15" customHeight="1">
+    <row r="49" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="1"/>
       <c r="C49" s="27"/>
       <c r="D49" s="1"/>
@@ -21924,7 +21919,7 @@
       <c r="AO49" s="6"/>
       <c r="AP49" s="6"/>
     </row>
-    <row r="50" spans="2:42" ht="15" customHeight="1">
+    <row r="50" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="1"/>
       <c r="C50" s="27"/>
       <c r="D50" s="1"/>
@@ -21967,7 +21962,7 @@
       <c r="AO50" s="6"/>
       <c r="AP50" s="6"/>
     </row>
-    <row r="51" spans="2:42" ht="15" customHeight="1">
+    <row r="51" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="1"/>
       <c r="C51" s="27"/>
       <c r="D51" s="1"/>
@@ -22010,7 +22005,7 @@
       <c r="AO51" s="6"/>
       <c r="AP51" s="6"/>
     </row>
-    <row r="52" spans="2:42" ht="15" customHeight="1">
+    <row r="52" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="1"/>
       <c r="C52" s="27"/>
       <c r="D52" s="1"/>
@@ -22053,7 +22048,7 @@
       <c r="AO52" s="6"/>
       <c r="AP52" s="6"/>
     </row>
-    <row r="53" spans="2:42" ht="15" customHeight="1">
+    <row r="53" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1"/>
       <c r="C53" s="27"/>
       <c r="D53" s="1"/>
@@ -22096,7 +22091,7 @@
       <c r="AO53" s="6"/>
       <c r="AP53" s="6"/>
     </row>
-    <row r="54" spans="2:42" ht="15" customHeight="1">
+    <row r="54" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="1"/>
       <c r="C54" s="27"/>
       <c r="D54" s="1"/>
@@ -22139,7 +22134,7 @@
       <c r="AO54" s="6"/>
       <c r="AP54" s="6"/>
     </row>
-    <row r="55" spans="2:42" ht="15" customHeight="1">
+    <row r="55" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="1"/>
       <c r="C55" s="27"/>
       <c r="D55" s="1"/>
@@ -22182,7 +22177,7 @@
       <c r="AO55" s="6"/>
       <c r="AP55" s="6"/>
     </row>
-    <row r="56" spans="2:42" ht="15" customHeight="1">
+    <row r="56" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="1"/>
       <c r="C56" s="27"/>
       <c r="D56" s="1"/>
@@ -22225,7 +22220,7 @@
       <c r="AO56" s="2"/>
       <c r="AP56" s="2"/>
     </row>
-    <row r="57" spans="2:42" ht="15" customHeight="1">
+    <row r="57" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="1"/>
       <c r="C57" s="27"/>
       <c r="D57" s="1"/>
@@ -22268,7 +22263,7 @@
       <c r="AO57" s="2"/>
       <c r="AP57" s="2"/>
     </row>
-    <row r="58" spans="2:42" ht="15" customHeight="1">
+    <row r="58" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="1"/>
       <c r="C58" s="27"/>
       <c r="D58" s="1"/>
@@ -22311,7 +22306,7 @@
       <c r="AO58" s="2"/>
       <c r="AP58" s="2"/>
     </row>
-    <row r="59" spans="2:42" ht="15" customHeight="1">
+    <row r="59" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="1"/>
       <c r="C59" s="27"/>
       <c r="D59" s="1"/>
@@ -22354,7 +22349,7 @@
       <c r="AO59" s="2"/>
       <c r="AP59" s="2"/>
     </row>
-    <row r="60" spans="2:42" ht="15" customHeight="1">
+    <row r="60" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="1"/>
       <c r="C60" s="27"/>
       <c r="D60" s="1"/>
@@ -22397,7 +22392,7 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
     </row>
-    <row r="61" spans="2:42" ht="15" customHeight="1">
+    <row r="61" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="1"/>
       <c r="C61" s="27"/>
       <c r="D61" s="1"/>
@@ -22440,7 +22435,7 @@
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
     </row>
-    <row r="62" spans="2:42" ht="15" customHeight="1">
+    <row r="62" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="1"/>
       <c r="C62" s="27"/>
       <c r="D62" s="1"/>
@@ -22483,7 +22478,7 @@
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
     </row>
-    <row r="63" spans="2:42" ht="15" customHeight="1">
+    <row r="63" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="1"/>
       <c r="C63" s="27"/>
       <c r="D63" s="1"/>
@@ -22526,7 +22521,7 @@
       <c r="AO63" s="2"/>
       <c r="AP63" s="2"/>
     </row>
-    <row r="64" spans="2:42" ht="15" customHeight="1">
+    <row r="64" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="1"/>
       <c r="C64" s="27"/>
       <c r="D64" s="1"/>
@@ -22569,7 +22564,7 @@
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
     </row>
-    <row r="65" spans="2:42" ht="15" customHeight="1">
+    <row r="65" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="1"/>
       <c r="C65" s="27"/>
       <c r="D65" s="1"/>
@@ -22612,7 +22607,7 @@
       <c r="AO65" s="2"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="2:42" ht="15" customHeight="1">
+    <row r="66" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="1"/>
       <c r="C66" s="27"/>
       <c r="D66" s="1"/>
@@ -22655,7 +22650,7 @@
       <c r="AO66" s="6"/>
       <c r="AP66" s="6"/>
     </row>
-    <row r="67" spans="2:42" ht="15" customHeight="1">
+    <row r="67" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="1"/>
       <c r="C67" s="27"/>
       <c r="D67" s="1"/>
@@ -22698,7 +22693,7 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
     </row>
-    <row r="68" spans="2:42" ht="15" customHeight="1">
+    <row r="68" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="1"/>
       <c r="C68" s="27"/>
       <c r="D68" s="1"/>
@@ -22741,7 +22736,7 @@
       <c r="AO68" s="2"/>
       <c r="AP68" s="2"/>
     </row>
-    <row r="69" spans="2:42" ht="15" customHeight="1">
+    <row r="69" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="1"/>
       <c r="C69" s="27"/>
       <c r="D69" s="1"/>
@@ -22784,7 +22779,7 @@
       <c r="AO69" s="2"/>
       <c r="AP69" s="2"/>
     </row>
-    <row r="70" spans="2:42" ht="15" customHeight="1">
+    <row r="70" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="1"/>
       <c r="C70" s="27"/>
       <c r="D70" s="1"/>
@@ -22827,7 +22822,7 @@
       <c r="AO70" s="2"/>
       <c r="AP70" s="2"/>
     </row>
-    <row r="71" spans="2:42" ht="15" customHeight="1">
+    <row r="71" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="1"/>
       <c r="C71" s="27"/>
       <c r="D71" s="1"/>
@@ -22870,7 +22865,7 @@
       <c r="AO71" s="2"/>
       <c r="AP71" s="2"/>
     </row>
-    <row r="72" spans="2:42" ht="15" customHeight="1">
+    <row r="72" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="1"/>
       <c r="C72" s="27"/>
       <c r="D72" s="1"/>
@@ -22913,7 +22908,7 @@
       <c r="AO72" s="2"/>
       <c r="AP72" s="2"/>
     </row>
-    <row r="73" spans="2:42" ht="15" customHeight="1">
+    <row r="73" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="1"/>
       <c r="C73" s="27"/>
       <c r="D73" s="1"/>
@@ -22956,7 +22951,7 @@
       <c r="AO73" s="2"/>
       <c r="AP73" s="2"/>
     </row>
-    <row r="74" spans="2:42" ht="15" customHeight="1">
+    <row r="74" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="1"/>
       <c r="C74" s="27"/>
       <c r="D74" s="1"/>
@@ -22999,7 +22994,7 @@
       <c r="AO74" s="2"/>
       <c r="AP74" s="2"/>
     </row>
-    <row r="75" spans="2:42" ht="15" customHeight="1">
+    <row r="75" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="1"/>
       <c r="C75" s="27"/>
       <c r="D75" s="1"/>
@@ -23042,7 +23037,7 @@
       <c r="AO75" s="2"/>
       <c r="AP75" s="2"/>
     </row>
-    <row r="76" spans="2:42" ht="15" customHeight="1">
+    <row r="76" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="1"/>
       <c r="C76" s="27"/>
       <c r="D76" s="1"/>
@@ -23085,7 +23080,7 @@
       <c r="AO76" s="6"/>
       <c r="AP76" s="6"/>
     </row>
-    <row r="77" spans="2:42" ht="15" customHeight="1">
+    <row r="77" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="1"/>
       <c r="C77" s="27"/>
       <c r="D77" s="1"/>
@@ -23128,7 +23123,7 @@
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
     </row>
-    <row r="78" spans="2:42" ht="15" customHeight="1">
+    <row r="78" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="1"/>
       <c r="C78" s="27"/>
       <c r="D78" s="1"/>
@@ -23171,7 +23166,7 @@
       <c r="AO78" s="6"/>
       <c r="AP78" s="6"/>
     </row>
-    <row r="79" spans="2:42" ht="15" customHeight="1">
+    <row r="79" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="1"/>
       <c r="C79" s="27"/>
       <c r="D79" s="1"/>
@@ -23214,7 +23209,7 @@
       <c r="AO79" s="6"/>
       <c r="AP79" s="6"/>
     </row>
-    <row r="80" spans="2:42" ht="15" customHeight="1">
+    <row r="80" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="1"/>
       <c r="C80" s="27"/>
       <c r="D80" s="1"/>
@@ -23257,7 +23252,7 @@
       <c r="AO80" s="6"/>
       <c r="AP80" s="6"/>
     </row>
-    <row r="81" spans="2:42" ht="15" customHeight="1">
+    <row r="81" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="1"/>
       <c r="C81" s="27"/>
       <c r="D81" s="1"/>
@@ -23300,7 +23295,7 @@
       <c r="AO81" s="6"/>
       <c r="AP81" s="6"/>
     </row>
-    <row r="82" spans="2:42" ht="15" customHeight="1">
+    <row r="82" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="1"/>
       <c r="C82" s="27"/>
       <c r="D82" s="1"/>
@@ -23343,7 +23338,7 @@
       <c r="AO82" s="6"/>
       <c r="AP82" s="6"/>
     </row>
-    <row r="83" spans="2:42" ht="15" customHeight="1">
+    <row r="83" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="1"/>
       <c r="C83" s="27"/>
       <c r="D83" s="1"/>
@@ -23386,7 +23381,7 @@
       <c r="AO83" s="6"/>
       <c r="AP83" s="6"/>
     </row>
-    <row r="84" spans="2:42" ht="15" customHeight="1">
+    <row r="84" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="1"/>
       <c r="C84" s="27"/>
       <c r="D84" s="1"/>
@@ -23429,7 +23424,7 @@
       <c r="AO84" s="6"/>
       <c r="AP84" s="6"/>
     </row>
-    <row r="85" spans="2:42" ht="15" customHeight="1">
+    <row r="85" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="1"/>
       <c r="C85" s="27"/>
       <c r="D85" s="1"/>
@@ -23472,7 +23467,7 @@
       <c r="AO85" s="6"/>
       <c r="AP85" s="6"/>
     </row>
-    <row r="86" spans="2:42" ht="15" customHeight="1">
+    <row r="86" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="1"/>
       <c r="C86" s="27"/>
       <c r="D86" s="1"/>
@@ -23515,7 +23510,7 @@
       <c r="AO86" s="6"/>
       <c r="AP86" s="6"/>
     </row>
-    <row r="87" spans="2:42" ht="15" customHeight="1">
+    <row r="87" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="1"/>
       <c r="C87" s="27"/>
       <c r="D87" s="1"/>
@@ -23558,7 +23553,7 @@
       <c r="AO87" s="6"/>
       <c r="AP87" s="6"/>
     </row>
-    <row r="88" spans="2:42" ht="15" customHeight="1">
+    <row r="88" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="1"/>
       <c r="C88" s="27"/>
       <c r="D88" s="1"/>
@@ -23601,7 +23596,7 @@
       <c r="AO88" s="6"/>
       <c r="AP88" s="6"/>
     </row>
-    <row r="89" spans="2:42" ht="15" customHeight="1">
+    <row r="89" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="1"/>
       <c r="C89" s="27"/>
       <c r="D89" s="1"/>
@@ -23644,7 +23639,7 @@
       <c r="AO89" s="6"/>
       <c r="AP89" s="6"/>
     </row>
-    <row r="90" spans="2:42" ht="15" customHeight="1">
+    <row r="90" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="1"/>
       <c r="C90" s="27"/>
       <c r="D90" s="1"/>
@@ -23687,7 +23682,7 @@
       <c r="AO90" s="6"/>
       <c r="AP90" s="6"/>
     </row>
-    <row r="91" spans="2:42" ht="15" customHeight="1">
+    <row r="91" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1"/>
       <c r="C91" s="27"/>
       <c r="D91" s="1"/>
@@ -23730,7 +23725,7 @@
       <c r="AO91" s="6"/>
       <c r="AP91" s="6"/>
     </row>
-    <row r="92" spans="2:42" ht="15" customHeight="1">
+    <row r="92" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1"/>
       <c r="C92" s="27"/>
       <c r="D92" s="1"/>
@@ -23773,7 +23768,7 @@
       <c r="AO92" s="6"/>
       <c r="AP92" s="6"/>
     </row>
-    <row r="93" spans="2:42" ht="15" customHeight="1">
+    <row r="93" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1"/>
       <c r="C93" s="27"/>
       <c r="D93" s="1"/>
@@ -23816,7 +23811,7 @@
       <c r="AO93" s="6"/>
       <c r="AP93" s="6"/>
     </row>
-    <row r="94" spans="2:42" ht="15" customHeight="1">
+    <row r="94" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1"/>
       <c r="C94" s="27"/>
       <c r="D94" s="1"/>
@@ -23859,7 +23854,7 @@
       <c r="AO94" s="6"/>
       <c r="AP94" s="6"/>
     </row>
-    <row r="95" spans="2:42" ht="15" customHeight="1">
+    <row r="95" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1"/>
       <c r="C95" s="27"/>
       <c r="D95" s="1"/>
@@ -23902,7 +23897,7 @@
       <c r="AO95" s="6"/>
       <c r="AP95" s="6"/>
     </row>
-    <row r="96" spans="2:42" ht="15" customHeight="1">
+    <row r="96" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="1"/>
       <c r="C96" s="27"/>
       <c r="D96" s="1"/>
@@ -23945,7 +23940,7 @@
       <c r="AO96" s="6"/>
       <c r="AP96" s="6"/>
     </row>
-    <row r="97" spans="2:42" ht="15" customHeight="1">
+    <row r="97" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1"/>
       <c r="C97" s="27"/>
       <c r="D97" s="1"/>
@@ -23988,7 +23983,7 @@
       <c r="AO97" s="6"/>
       <c r="AP97" s="6"/>
     </row>
-    <row r="98" spans="2:42" ht="15" customHeight="1">
+    <row r="98" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1"/>
       <c r="C98" s="27"/>
       <c r="D98" s="1"/>
@@ -24031,7 +24026,7 @@
       <c r="AO98" s="6"/>
       <c r="AP98" s="6"/>
     </row>
-    <row r="99" spans="2:42" ht="15" customHeight="1">
+    <row r="99" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="1"/>
       <c r="C99" s="27"/>
       <c r="D99" s="1"/>
@@ -24074,7 +24069,7 @@
       <c r="AO99" s="6"/>
       <c r="AP99" s="6"/>
     </row>
-    <row r="100" spans="2:42" ht="15" customHeight="1">
+    <row r="100" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1"/>
       <c r="C100" s="27"/>
       <c r="D100" s="1"/>
@@ -24117,7 +24112,7 @@
       <c r="AO100" s="6"/>
       <c r="AP100" s="6"/>
     </row>
-    <row r="101" spans="2:42" ht="15" customHeight="1">
+    <row r="101" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1"/>
       <c r="C101" s="27"/>
       <c r="D101" s="1"/>
@@ -24160,7 +24155,7 @@
       <c r="AO101" s="6"/>
       <c r="AP101" s="6"/>
     </row>
-    <row r="102" spans="2:42" ht="15" customHeight="1">
+    <row r="102" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="1"/>
       <c r="C102" s="27"/>
       <c r="D102" s="1"/>
@@ -24203,7 +24198,7 @@
       <c r="AO102" s="6"/>
       <c r="AP102" s="6"/>
     </row>
-    <row r="103" spans="2:42" ht="15" customHeight="1">
+    <row r="103" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1"/>
       <c r="C103" s="27"/>
       <c r="D103" s="1"/>
@@ -24246,7 +24241,7 @@
       <c r="AO103" s="2"/>
       <c r="AP103" s="2"/>
     </row>
-    <row r="104" spans="2:42" ht="15" customHeight="1">
+    <row r="104" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1"/>
       <c r="C104" s="27"/>
       <c r="D104" s="1"/>
@@ -24289,7 +24284,7 @@
       <c r="AO104" s="6"/>
       <c r="AP104" s="6"/>
     </row>
-    <row r="105" spans="2:42" ht="15" customHeight="1">
+    <row r="105" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="1"/>
       <c r="C105" s="27"/>
       <c r="D105" s="1"/>
@@ -24332,7 +24327,7 @@
       <c r="AO105" s="6"/>
       <c r="AP105" s="6"/>
     </row>
-    <row r="106" spans="2:42" ht="15" customHeight="1">
+    <row r="106" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1"/>
       <c r="C106" s="27"/>
       <c r="D106" s="1"/>
@@ -24375,7 +24370,7 @@
       <c r="AO106" s="6"/>
       <c r="AP106" s="6"/>
     </row>
-    <row r="107" spans="2:42" ht="15" customHeight="1">
+    <row r="107" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="1"/>
       <c r="C107" s="27"/>
       <c r="D107" s="1"/>
@@ -24418,7 +24413,7 @@
       <c r="AO107" s="2"/>
       <c r="AP107" s="2"/>
     </row>
-    <row r="108" spans="2:42" ht="15" customHeight="1">
+    <row r="108" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="1"/>
       <c r="C108" s="27"/>
       <c r="D108" s="1"/>
@@ -24459,7 +24454,7 @@
       <c r="AO108" s="2"/>
       <c r="AP108" s="2"/>
     </row>
-    <row r="109" spans="2:42" ht="15" customHeight="1">
+    <row r="109" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="4"/>
       <c r="C109" s="28"/>
       <c r="D109" s="4"/>

--- a/CloudMonitor5G-2.0/src/main/resources/templates/4.问题路段.xlsx
+++ b/CloudMonitor5G-2.0/src/main/resources/templates/4.问题路段.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-30" windowWidth="15600" windowHeight="11670" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-30" windowWidth="15600" windowHeight="11670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="弱覆盖路段" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="128">
   <si>
     <t>序号</t>
   </si>
@@ -498,6 +498,18 @@
   <si>
     <t>NR_Path Loss(dB)</t>
     <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.rate53483lt100}</t>
+  </si>
+  <si>
+    <t>${item.rate54231lt5}</t>
+  </si>
+  <si>
+    <t>${item.avg51193}</t>
+  </si>
+  <si>
+    <t>${item.avg53682}</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1213,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1211,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z125"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4806,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5223,7 +5235,7 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5657,8 +5669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP298"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5679,7 +5691,7 @@
     <col min="16" max="16" width="16.5" customWidth="1"/>
     <col min="17" max="17" width="14.875" customWidth="1"/>
     <col min="18" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="24.625" customWidth="1"/>
     <col min="20" max="20" width="15.25" customWidth="1"/>
     <col min="21" max="21" width="16.625" customWidth="1"/>
     <col min="22" max="22" width="15.25" customWidth="1"/>
@@ -5933,7 +5945,9 @@
       <c r="R3" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="23"/>
+      <c r="S3" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="T3" s="23" t="s">
         <v>99</v>
       </c>
@@ -18946,8 +18960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18968,11 +18982,11 @@
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="18" max="18" width="15.5" customWidth="1"/>
     <col min="19" max="19" width="18.75" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="16.25" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="12.875" customWidth="1"/>
+    <col min="22" max="22" width="18.125" customWidth="1"/>
     <col min="23" max="23" width="14.25" customWidth="1"/>
-    <col min="24" max="24" width="10" customWidth="1"/>
+    <col min="24" max="24" width="16.625" customWidth="1"/>
     <col min="25" max="25" width="18.125" customWidth="1"/>
     <col min="26" max="26" width="14.25" customWidth="1"/>
     <col min="27" max="27" width="12.875" customWidth="1"/>
@@ -19215,7 +19229,9 @@
       <c r="R3" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="S3" s="23"/>
+      <c r="S3" s="23" t="s">
+        <v>125</v>
+      </c>
       <c r="T3" s="23" t="s">
         <v>116</v>
       </c>
@@ -19223,7 +19239,7 @@
         <v>118</v>
       </c>
       <c r="V3" s="23" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="W3" s="23" t="s">
         <v>91</v>
@@ -19231,7 +19247,9 @@
       <c r="X3" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="Y3" s="23"/>
+      <c r="Y3" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="Z3" s="23" t="s">
         <v>119</v>
       </c>
@@ -23671,7 +23689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
